--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="19">
   <si>
     <t>Station</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>PALMA SOLA</t>
+  </si>
+  <si>
+    <t>PALMAREJO VEGA BAJA</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S138"/>
+  <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2423,19 +2426,261 @@
         <v>6.43</v>
       </c>
     </row>
+    <row r="134" spans="1:12">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>201501</v>
+      </c>
+      <c r="F134" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="G134" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>201502</v>
+      </c>
+      <c r="F135" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>201503</v>
+      </c>
+      <c r="F136" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="G136" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>201504</v>
+      </c>
+      <c r="F137" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="1"/>
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="E138">
+        <v>201505</v>
+      </c>
+      <c r="F138" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G138" s="1">
+        <v>3.88</v>
+      </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>201506</v>
+      </c>
+      <c r="F139" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G139" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>201507</v>
+      </c>
+      <c r="F140" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>201508</v>
+      </c>
+      <c r="F141" s="1">
+        <v>80</v>
+      </c>
+      <c r="G141" s="1">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>201509</v>
+      </c>
+      <c r="F142" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="G142" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143">
+        <v>201510</v>
+      </c>
+      <c r="F143" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="G143" s="1">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144">
+        <v>201511</v>
+      </c>
+      <c r="F144" s="1">
+        <v>76.8</v>
+      </c>
+      <c r="G144" s="1">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>201512</v>
+      </c>
+      <c r="F145" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="B147" s="1">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C147" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="D147" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E147" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F147" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G147" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="H147" s="1">
+        <v>80</v>
+      </c>
+      <c r="I147" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J147" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="K147" s="1">
+        <v>76.8</v>
+      </c>
+      <c r="L147" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="E148" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="F148" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G148" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="H148" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="I148" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="J148" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="K148" s="1">
+        <v>8.39</v>
+      </c>
+      <c r="L148" s="1">
+        <v>1.91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="20">
   <si>
     <t>Station</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>PALMAREJO VEGA BAJA</t>
+  </si>
+  <si>
+    <t>SAN JUAN L M MARIN AP</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S148"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2603,36 +2606,37 @@
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="F146" s="1"/>
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>201501</v>
+      </c>
+      <c r="F146" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="G146" s="1">
+        <v>4.96</v>
+      </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="1">
-        <v>74.2</v>
-      </c>
-      <c r="B147" s="1">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="C147" s="1">
-        <v>73.5</v>
-      </c>
-      <c r="D147" s="1">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="E147" s="1">
-        <v>78.400000000000006</v>
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147">
+        <v>201502</v>
       </c>
       <c r="F147" s="1">
-        <v>79.400000000000006</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="G147" s="1">
-        <v>79.7</v>
-      </c>
-      <c r="H147" s="1">
-        <v>80</v>
-      </c>
-      <c r="I147" s="1">
-        <v>79.900000000000006</v>
-      </c>
+        <v>3.27</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
       <c r="J147" s="1">
         <v>79.8</v>
       </c>
@@ -2645,33 +2649,23 @@
       <c r="M147" s="1"/>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="B148" s="1">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="C148" s="1">
-        <v>3.24</v>
-      </c>
-      <c r="D148" s="1">
-        <v>2.31</v>
-      </c>
-      <c r="E148" s="1">
-        <v>3.88</v>
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148">
+        <v>201503</v>
       </c>
       <c r="F148" s="1">
-        <v>4.6500000000000004</v>
+        <v>78.7</v>
       </c>
       <c r="G148" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="H148" s="1">
-        <v>4.12</v>
-      </c>
-      <c r="I148" s="1">
-        <v>9.2200000000000006</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
       <c r="J148" s="1">
         <v>7.54</v>
       </c>
@@ -2681,6 +2675,160 @@
       <c r="L148" s="1">
         <v>1.91</v>
       </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>201504</v>
+      </c>
+      <c r="F149" s="1">
+        <v>81.5</v>
+      </c>
+      <c r="G149" s="1">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>201505</v>
+      </c>
+      <c r="F150" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="G150" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>201506</v>
+      </c>
+      <c r="F151" s="1">
+        <v>83.9</v>
+      </c>
+      <c r="G151" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>201507</v>
+      </c>
+      <c r="F152" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="G152" s="1">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>201508</v>
+      </c>
+      <c r="F153" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="G153" s="1">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>201509</v>
+      </c>
+      <c r="F154" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="G154" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>201510</v>
+      </c>
+      <c r="F155" s="1">
+        <v>84.6</v>
+      </c>
+      <c r="G155" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>201511</v>
+      </c>
+      <c r="F156" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="G156" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201512</v>
+      </c>
+      <c r="F157" s="1">
+        <v>80</v>
+      </c>
+      <c r="G157" s="1">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="21">
   <si>
     <t>Station</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>SAN JUAN L M MARIN AP</t>
+  </si>
+  <si>
+    <t>WFO SAN JUAN</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S161"/>
+  <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2802,14 +2805,50 @@
         <v>3.47</v>
       </c>
     </row>
+    <row r="158" spans="1:13">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>201501</v>
+      </c>
+      <c r="F158" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G158" s="1">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>201502</v>
+      </c>
+      <c r="F159" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G159" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
     <row r="160" spans="1:13">
-      <c r="A160" s="1"/>
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="E160">
+        <v>201503</v>
+      </c>
+      <c r="F160" s="1">
+        <v>77.7</v>
+      </c>
+      <c r="G160" s="1">
+        <v>2.54</v>
+      </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -2817,18 +2856,166 @@
       <c r="L160" s="1"/>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="1"/>
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="E161">
+        <v>201504</v>
+      </c>
+      <c r="F161" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1.61</v>
+      </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>201505</v>
+      </c>
+      <c r="F162" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="G162" s="1">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163">
+        <v>201506</v>
+      </c>
+      <c r="F163" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="G163" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>201507</v>
+      </c>
+      <c r="F164" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="G164" s="1">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>201508</v>
+      </c>
+      <c r="F165" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="G165" s="1">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <v>201509</v>
+      </c>
+      <c r="F166" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="G166" s="1">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167">
+        <v>201510</v>
+      </c>
+      <c r="F167" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="G167" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>201511</v>
+      </c>
+      <c r="F168" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="G168" s="1">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>201512</v>
+      </c>
+      <c r="F169" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G169" s="1">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="22">
   <si>
     <t>Station</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>WFO SAN JUAN</t>
+  </si>
+  <si>
+    <t>TOA BAJA LEVITOWN</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S180"/>
+  <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2989,33 +2992,281 @@
         <v>4.07</v>
       </c>
     </row>
+    <row r="170" spans="1:12">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170">
+        <v>201501</v>
+      </c>
+      <c r="F170" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G170" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171">
+        <v>201502</v>
+      </c>
+      <c r="F171" s="1">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G171" s="1">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172">
+        <v>201503</v>
+      </c>
+      <c r="F172" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G172" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173">
+        <v>201504</v>
+      </c>
+      <c r="F173" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G173" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="1"/>
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="E174">
+        <v>201505</v>
+      </c>
+      <c r="F174" s="1">
+        <v>83</v>
+      </c>
+      <c r="G174" s="1">
+        <v>4.0199999999999996</v>
+      </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
+    <row r="175" spans="1:12">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="E175">
+        <v>201506</v>
+      </c>
+      <c r="F175" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176">
+        <v>201507</v>
+      </c>
+      <c r="F176" s="1">
+        <v>84</v>
+      </c>
+      <c r="G176" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177">
+        <v>201508</v>
+      </c>
+      <c r="F177" s="1">
+        <v>83.8</v>
+      </c>
+      <c r="G177" s="1">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178">
+        <v>201509</v>
+      </c>
+      <c r="F178" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="G178" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179">
+        <v>201510</v>
+      </c>
+      <c r="F179" s="1">
+        <v>83.9</v>
+      </c>
+      <c r="G179" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="1"/>
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
+      <c r="E180">
+        <v>201511</v>
+      </c>
+      <c r="F180" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="G180" s="1">
+        <v>-9999</v>
+      </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181">
+        <v>201512</v>
+      </c>
+      <c r="F181" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="G181" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -433,6 +433,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="26.21875" customWidth="1"/>
     <col min="7" max="7" width="28.109375" customWidth="1"/>
   </cols>

--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="17220" windowHeight="7680"/>
+    <workbookView xWindow="380" yWindow="40" windowWidth="24060" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,8 +92,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +107,22 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,17 +145,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,19 +463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18">
@@ -465,6 +507,15 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C2">
+        <v>-66.060648</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
       <c r="E2">
         <v>201501</v>
       </c>
@@ -479,6 +530,15 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C3">
+        <v>-66.060648</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
       <c r="E3">
         <v>201502</v>
       </c>
@@ -493,6 +553,15 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C4">
+        <v>-66.060648</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
       <c r="E4">
         <v>201503</v>
       </c>
@@ -507,6 +576,15 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C5">
+        <v>-66.060648</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
       <c r="E5">
         <v>201504</v>
       </c>
@@ -521,6 +599,15 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C6">
+        <v>-66.060648</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
       <c r="E6">
         <v>201505</v>
       </c>
@@ -535,6 +622,15 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
+      <c r="B7">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C7">
+        <v>-66.060648</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
       <c r="E7">
         <v>201506</v>
       </c>
@@ -549,6 +645,15 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
+      <c r="B8">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C8">
+        <v>-66.060648</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
       <c r="E8">
         <v>201507</v>
       </c>
@@ -563,6 +668,15 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
+      <c r="B9">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C9">
+        <v>-66.060648</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
       <c r="E9">
         <v>201508</v>
       </c>
@@ -577,6 +691,15 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
+      <c r="B10">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C10">
+        <v>-66.060648</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
       <c r="E10">
         <v>201509</v>
       </c>
@@ -591,6 +714,15 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
+      <c r="B11">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C11">
+        <v>-66.060648</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
       <c r="E11">
         <v>201510</v>
       </c>
@@ -605,6 +737,15 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
+      <c r="B12">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C12">
+        <v>-66.060648</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
       <c r="E12">
         <v>201511</v>
       </c>
@@ -619,6 +760,15 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
+      <c r="B13">
+        <v>18.386773999999999</v>
+      </c>
+      <c r="C13">
+        <v>-66.060648</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
       <c r="E13">
         <v>201512</v>
       </c>
@@ -633,6 +783,15 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
+      <c r="B14">
+        <v>18.138565</v>
+      </c>
+      <c r="C14">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D14">
+        <v>731</v>
+      </c>
       <c r="E14">
         <v>201501</v>
       </c>
@@ -647,6 +806,15 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
+      <c r="B15">
+        <v>18.138565</v>
+      </c>
+      <c r="C15">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D15">
+        <v>731</v>
+      </c>
       <c r="E15">
         <v>201502</v>
       </c>
@@ -660,6 +828,15 @@
     <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>7</v>
+      </c>
+      <c r="B16">
+        <v>18.138565</v>
+      </c>
+      <c r="C16">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D16">
+        <v>731</v>
       </c>
       <c r="E16">
         <v>201503</v>
@@ -687,6 +864,15 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
+      <c r="B17">
+        <v>18.138565</v>
+      </c>
+      <c r="C17">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D17">
+        <v>731</v>
+      </c>
       <c r="E17">
         <v>201504</v>
       </c>
@@ -701,6 +887,15 @@
       <c r="A18" t="s">
         <v>7</v>
       </c>
+      <c r="B18">
+        <v>18.138565</v>
+      </c>
+      <c r="C18">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D18">
+        <v>731</v>
+      </c>
       <c r="E18">
         <v>201505</v>
       </c>
@@ -715,6 +910,15 @@
       <c r="A19" t="s">
         <v>7</v>
       </c>
+      <c r="B19">
+        <v>18.138565</v>
+      </c>
+      <c r="C19">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D19">
+        <v>731</v>
+      </c>
       <c r="E19">
         <v>201506</v>
       </c>
@@ -729,6 +933,15 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
+      <c r="B20">
+        <v>18.138565</v>
+      </c>
+      <c r="C20">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D20">
+        <v>731</v>
+      </c>
       <c r="E20">
         <v>201507</v>
       </c>
@@ -743,6 +956,15 @@
       <c r="A21" t="s">
         <v>7</v>
       </c>
+      <c r="B21">
+        <v>18.138565</v>
+      </c>
+      <c r="C21">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D21">
+        <v>731</v>
+      </c>
       <c r="E21">
         <v>201508</v>
       </c>
@@ -757,6 +979,15 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
+      <c r="B22">
+        <v>18.138565</v>
+      </c>
+      <c r="C22">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D22">
+        <v>731</v>
+      </c>
       <c r="E22">
         <v>201509</v>
       </c>
@@ -771,6 +1002,15 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
+      <c r="B23">
+        <v>18.138565</v>
+      </c>
+      <c r="C23">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D23">
+        <v>731</v>
+      </c>
       <c r="E23">
         <v>201510</v>
       </c>
@@ -785,6 +1025,15 @@
       <c r="A24" t="s">
         <v>7</v>
       </c>
+      <c r="B24">
+        <v>18.138565</v>
+      </c>
+      <c r="C24">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D24">
+        <v>731</v>
+      </c>
       <c r="E24">
         <v>201511</v>
       </c>
@@ -799,6 +1048,15 @@
       <c r="A25" t="s">
         <v>7</v>
       </c>
+      <c r="B25">
+        <v>18.138565</v>
+      </c>
+      <c r="C25">
+        <v>-66.263492999999997</v>
+      </c>
+      <c r="D25">
+        <v>731</v>
+      </c>
       <c r="E25">
         <v>201512</v>
       </c>
@@ -813,6 +1071,15 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
+      <c r="B26">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C26">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D26">
+        <v>344</v>
+      </c>
       <c r="E26">
         <v>201501</v>
       </c>
@@ -827,6 +1094,15 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
+      <c r="B27">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C27">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D27">
+        <v>344</v>
+      </c>
       <c r="E27">
         <v>201502</v>
       </c>
@@ -841,7 +1117,15 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="B28">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C28">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D28">
+        <v>344</v>
+      </c>
       <c r="E28">
         <v>201503</v>
       </c>
@@ -864,6 +1148,15 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
+      <c r="B29">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C29">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D29">
+        <v>344</v>
+      </c>
       <c r="E29">
         <v>201504</v>
       </c>
@@ -878,6 +1171,15 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
+      <c r="B30">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C30">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D30">
+        <v>344</v>
+      </c>
       <c r="E30">
         <v>201505</v>
       </c>
@@ -892,6 +1194,15 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
+      <c r="B31">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C31">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D31">
+        <v>344</v>
+      </c>
       <c r="E31">
         <v>201506</v>
       </c>
@@ -906,6 +1217,15 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
+      <c r="B32">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C32">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D32">
+        <v>344</v>
+      </c>
       <c r="E32">
         <v>201507</v>
       </c>
@@ -920,6 +1240,15 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
+      <c r="B33">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C33">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D33">
+        <v>344</v>
+      </c>
       <c r="E33">
         <v>201508</v>
       </c>
@@ -934,6 +1263,15 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
+      <c r="B34">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C34">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D34">
+        <v>344</v>
+      </c>
       <c r="E34">
         <v>201509</v>
       </c>
@@ -948,6 +1286,15 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
+      <c r="B35">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C35">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D35">
+        <v>344</v>
+      </c>
       <c r="E35">
         <v>201510</v>
       </c>
@@ -962,6 +1309,15 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
+      <c r="B36">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C36">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D36">
+        <v>344</v>
+      </c>
       <c r="E36">
         <v>201511</v>
       </c>
@@ -976,6 +1332,15 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
+      <c r="B37">
+        <v>18.384067999999999</v>
+      </c>
+      <c r="C37">
+        <v>-66.653473000000005</v>
+      </c>
+      <c r="D37">
+        <v>344</v>
+      </c>
       <c r="E37">
         <v>201512</v>
       </c>
@@ -990,6 +1355,15 @@
       <c r="A38" t="s">
         <v>10</v>
       </c>
+      <c r="B38" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C38">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
       <c r="E38">
         <v>201501</v>
       </c>
@@ -1004,8 +1378,15 @@
       <c r="A39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C39">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
       <c r="E39">
         <v>201502</v>
       </c>
@@ -1027,6 +1408,15 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
+      <c r="B40" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C40">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
       <c r="E40">
         <v>201503</v>
       </c>
@@ -1041,6 +1431,15 @@
       <c r="A41" t="s">
         <v>10</v>
       </c>
+      <c r="B41" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C41">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
       <c r="E41">
         <v>201504</v>
       </c>
@@ -1055,6 +1454,15 @@
       <c r="A42" t="s">
         <v>10</v>
       </c>
+      <c r="B42" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C42">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
       <c r="E42">
         <v>201505</v>
       </c>
@@ -1069,6 +1477,15 @@
       <c r="A43" t="s">
         <v>10</v>
       </c>
+      <c r="B43" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C43">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
       <c r="E43">
         <v>201506</v>
       </c>
@@ -1083,6 +1500,15 @@
       <c r="A44" t="s">
         <v>10</v>
       </c>
+      <c r="B44" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C44">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
       <c r="E44">
         <v>201507</v>
       </c>
@@ -1097,6 +1523,15 @@
       <c r="A45" t="s">
         <v>10</v>
       </c>
+      <c r="B45" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C45">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
       <c r="E45">
         <v>201508</v>
       </c>
@@ -1111,6 +1546,15 @@
       <c r="A46" t="s">
         <v>10</v>
       </c>
+      <c r="B46" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C46">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
       <c r="E46">
         <v>201509</v>
       </c>
@@ -1125,6 +1569,15 @@
       <c r="A47" t="s">
         <v>10</v>
       </c>
+      <c r="B47" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C47">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
       <c r="E47">
         <v>201510</v>
       </c>
@@ -1139,6 +1592,15 @@
       <c r="A48" t="s">
         <v>10</v>
       </c>
+      <c r="B48" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C48">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
       <c r="E48">
         <v>201511</v>
       </c>
@@ -1153,6 +1615,15 @@
       <c r="A49" t="s">
         <v>10</v>
       </c>
+      <c r="B49" s="3">
+        <v>18.381599999999999</v>
+      </c>
+      <c r="C49">
+        <v>-67.159308999999993</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
       <c r="E49">
         <v>201512</v>
       </c>
@@ -1167,6 +1638,15 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
+      <c r="B50" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C50">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D50">
+        <v>22</v>
+      </c>
       <c r="E50">
         <v>201501</v>
       </c>
@@ -1181,9 +1661,15 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C51">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
       <c r="E51">
         <v>201502</v>
       </c>
@@ -1204,6 +1690,15 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
+      <c r="B52" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C52">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
       <c r="E52">
         <v>201503</v>
       </c>
@@ -1218,6 +1713,15 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
+      <c r="B53" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C53">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D53">
+        <v>22</v>
+      </c>
       <c r="E53">
         <v>201504</v>
       </c>
@@ -1232,6 +1736,15 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
+      <c r="B54" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C54">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
       <c r="E54">
         <v>201505</v>
       </c>
@@ -1246,6 +1759,15 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
+      <c r="B55" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C55">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D55">
+        <v>22</v>
+      </c>
       <c r="E55">
         <v>201506</v>
       </c>
@@ -1260,6 +1782,15 @@
       <c r="A56" t="s">
         <v>11</v>
       </c>
+      <c r="B56" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C56">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D56">
+        <v>22</v>
+      </c>
       <c r="E56">
         <v>201507</v>
       </c>
@@ -1274,6 +1805,15 @@
       <c r="A57" t="s">
         <v>11</v>
       </c>
+      <c r="B57" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C57">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
       <c r="E57">
         <v>201508</v>
       </c>
@@ -1288,6 +1828,15 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
+      <c r="B58" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C58">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D58">
+        <v>22</v>
+      </c>
       <c r="E58">
         <v>201509</v>
       </c>
@@ -1302,6 +1851,15 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
+      <c r="B59" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C59">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D59">
+        <v>22</v>
+      </c>
       <c r="E59">
         <v>201510</v>
       </c>
@@ -1316,6 +1874,15 @@
       <c r="A60" t="s">
         <v>11</v>
       </c>
+      <c r="B60" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C60">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
       <c r="E60">
         <v>201511</v>
       </c>
@@ -1330,6 +1897,15 @@
       <c r="A61" t="s">
         <v>11</v>
       </c>
+      <c r="B61" s="3">
+        <v>17.969836000000001</v>
+      </c>
+      <c r="C61">
+        <v>-66.933477999999994</v>
+      </c>
+      <c r="D61">
+        <v>22</v>
+      </c>
       <c r="E61">
         <v>201512</v>
       </c>
@@ -1344,6 +1920,15 @@
       <c r="A62" t="s">
         <v>12</v>
       </c>
+      <c r="B62" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C62">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
       <c r="E62">
         <v>201501</v>
       </c>
@@ -1358,6 +1943,15 @@
       <c r="A63" t="s">
         <v>12</v>
       </c>
+      <c r="B63" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C63">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D63">
+        <v>67</v>
+      </c>
       <c r="E63">
         <v>201502</v>
       </c>
@@ -1372,6 +1966,15 @@
       <c r="A64" t="s">
         <v>12</v>
       </c>
+      <c r="B64" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C64">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D64">
+        <v>67</v>
+      </c>
       <c r="E64">
         <v>201503</v>
       </c>
@@ -1386,6 +1989,15 @@
       <c r="A65" t="s">
         <v>12</v>
       </c>
+      <c r="B65" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C65">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D65">
+        <v>67</v>
+      </c>
       <c r="E65">
         <v>201504</v>
       </c>
@@ -1400,6 +2012,15 @@
       <c r="A66" t="s">
         <v>12</v>
       </c>
+      <c r="B66" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C66">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D66">
+        <v>67</v>
+      </c>
       <c r="E66">
         <v>201505</v>
       </c>
@@ -1414,6 +2035,15 @@
       <c r="A67" t="s">
         <v>12</v>
       </c>
+      <c r="B67" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C67">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D67">
+        <v>67</v>
+      </c>
       <c r="E67">
         <v>201506</v>
       </c>
@@ -1428,6 +2058,15 @@
       <c r="A68" t="s">
         <v>12</v>
       </c>
+      <c r="B68" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C68">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
       <c r="E68">
         <v>201507</v>
       </c>
@@ -1442,6 +2081,15 @@
       <c r="A69" t="s">
         <v>12</v>
       </c>
+      <c r="B69" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C69">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
       <c r="E69">
         <v>201508</v>
       </c>
@@ -1456,6 +2104,15 @@
       <c r="A70" t="s">
         <v>12</v>
       </c>
+      <c r="B70" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C70">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D70">
+        <v>67</v>
+      </c>
       <c r="E70">
         <v>201509</v>
       </c>
@@ -1470,6 +2127,15 @@
       <c r="A71" t="s">
         <v>12</v>
       </c>
+      <c r="B71" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C71">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D71">
+        <v>67</v>
+      </c>
       <c r="E71">
         <v>201510</v>
       </c>
@@ -1484,6 +2150,15 @@
       <c r="A72" t="s">
         <v>12</v>
       </c>
+      <c r="B72" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C72">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D72">
+        <v>67</v>
+      </c>
       <c r="E72">
         <v>201511</v>
       </c>
@@ -1498,6 +2173,15 @@
       <c r="A73" t="s">
         <v>12</v>
       </c>
+      <c r="B73" s="3">
+        <v>17.983229000000001</v>
+      </c>
+      <c r="C73">
+        <v>-66.114636000000004</v>
+      </c>
+      <c r="D73">
+        <v>67</v>
+      </c>
       <c r="E73">
         <v>201512</v>
       </c>
@@ -1512,6 +2196,15 @@
       <c r="A74" t="s">
         <v>13</v>
       </c>
+      <c r="B74" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C74">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
       <c r="E74">
         <v>201501</v>
       </c>
@@ -1525,6 +2218,15 @@
     <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>13</v>
+      </c>
+      <c r="B75" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C75">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75">
         <v>201502</v>
@@ -1551,6 +2253,15 @@
       <c r="A76" t="s">
         <v>13</v>
       </c>
+      <c r="B76" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C76">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>201503</v>
       </c>
@@ -1565,6 +2276,15 @@
       <c r="A77" t="s">
         <v>13</v>
       </c>
+      <c r="B77" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C77">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
       <c r="E77">
         <v>201504</v>
       </c>
@@ -1579,6 +2299,15 @@
       <c r="A78" t="s">
         <v>13</v>
       </c>
+      <c r="B78" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C78">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
       <c r="E78">
         <v>201505</v>
       </c>
@@ -1593,9 +2322,15 @@
       <c r="A79" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C79">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
       <c r="E79">
         <v>201506</v>
       </c>
@@ -1615,6 +2350,15 @@
       <c r="A80" t="s">
         <v>13</v>
       </c>
+      <c r="B80" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C80">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80">
         <v>201507</v>
       </c>
@@ -1629,6 +2373,15 @@
       <c r="A81" t="s">
         <v>13</v>
       </c>
+      <c r="B81" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C81">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
       <c r="E81">
         <v>201508</v>
       </c>
@@ -1643,6 +2396,15 @@
       <c r="A82" t="s">
         <v>13</v>
       </c>
+      <c r="B82" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C82">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
       <c r="E82">
         <v>201509</v>
       </c>
@@ -1657,6 +2419,15 @@
       <c r="A83" t="s">
         <v>13</v>
       </c>
+      <c r="B83" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C83">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
       <c r="E83">
         <v>201510</v>
       </c>
@@ -1671,6 +2442,15 @@
       <c r="A84" t="s">
         <v>13</v>
       </c>
+      <c r="B84" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C84">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
       <c r="E84">
         <v>201511</v>
       </c>
@@ -1685,6 +2465,15 @@
       <c r="A85" t="s">
         <v>13</v>
       </c>
+      <c r="B85" s="3">
+        <v>18.15485</v>
+      </c>
+      <c r="C85">
+        <v>-65.769741999999994</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
       <c r="E85">
         <v>201512</v>
       </c>
@@ -1699,6 +2488,15 @@
       <c r="A86" t="s">
         <v>14</v>
       </c>
+      <c r="B86" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C86">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D86">
+        <v>58</v>
+      </c>
       <c r="E86">
         <v>201501</v>
       </c>
@@ -1713,9 +2511,15 @@
       <c r="A87" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="B87" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C87">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D87">
+        <v>58</v>
+      </c>
       <c r="E87">
         <v>201502</v>
       </c>
@@ -1737,6 +2541,15 @@
       <c r="A88" t="s">
         <v>14</v>
       </c>
+      <c r="B88" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C88">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D88">
+        <v>58</v>
+      </c>
       <c r="E88">
         <v>201503</v>
       </c>
@@ -1751,6 +2564,15 @@
       <c r="A89" t="s">
         <v>14</v>
       </c>
+      <c r="B89" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C89">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D89">
+        <v>58</v>
+      </c>
       <c r="E89">
         <v>201504</v>
       </c>
@@ -1765,6 +2587,15 @@
       <c r="A90" t="s">
         <v>14</v>
       </c>
+      <c r="B90" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C90">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D90">
+        <v>58</v>
+      </c>
       <c r="E90">
         <v>201505</v>
       </c>
@@ -1779,6 +2610,15 @@
       <c r="A91" t="s">
         <v>14</v>
       </c>
+      <c r="B91" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C91">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D91">
+        <v>58</v>
+      </c>
       <c r="E91">
         <v>201506</v>
       </c>
@@ -1793,9 +2633,15 @@
       <c r="A92" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C92">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D92">
+        <v>58</v>
+      </c>
       <c r="E92">
         <v>201507</v>
       </c>
@@ -1816,6 +2662,15 @@
       <c r="A93" t="s">
         <v>14</v>
       </c>
+      <c r="B93" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C93">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D93">
+        <v>58</v>
+      </c>
       <c r="E93">
         <v>201508</v>
       </c>
@@ -1830,6 +2685,15 @@
       <c r="A94" t="s">
         <v>14</v>
       </c>
+      <c r="B94" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C94">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D94">
+        <v>58</v>
+      </c>
       <c r="E94">
         <v>201509</v>
       </c>
@@ -1844,6 +2708,15 @@
       <c r="A95" t="s">
         <v>14</v>
       </c>
+      <c r="B95" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C95">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D95">
+        <v>58</v>
+      </c>
       <c r="E95">
         <v>201510</v>
       </c>
@@ -1858,6 +2731,15 @@
       <c r="A96" t="s">
         <v>14</v>
       </c>
+      <c r="B96" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C96">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D96">
+        <v>58</v>
+      </c>
       <c r="E96">
         <v>201511</v>
       </c>
@@ -1872,6 +2754,15 @@
       <c r="A97" t="s">
         <v>14</v>
       </c>
+      <c r="B97" s="3">
+        <v>18.231259999999999</v>
+      </c>
+      <c r="C97">
+        <v>-65.915006000000005</v>
+      </c>
+      <c r="D97">
+        <v>58</v>
+      </c>
       <c r="E97">
         <v>201512</v>
       </c>
@@ -1886,6 +2777,15 @@
       <c r="A98" t="s">
         <v>15</v>
       </c>
+      <c r="B98" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C98">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D98">
+        <v>37</v>
+      </c>
       <c r="E98">
         <v>201501</v>
       </c>
@@ -1900,7 +2800,15 @@
       <c r="A99" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="B99" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C99">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D99">
+        <v>37</v>
+      </c>
       <c r="E99">
         <v>201502</v>
       </c>
@@ -1923,9 +2831,15 @@
       <c r="A100" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C100">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D100">
+        <v>37</v>
+      </c>
       <c r="E100">
         <v>201503</v>
       </c>
@@ -1946,6 +2860,15 @@
       <c r="A101" t="s">
         <v>15</v>
       </c>
+      <c r="B101" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C101">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D101">
+        <v>37</v>
+      </c>
       <c r="E101">
         <v>201504</v>
       </c>
@@ -1960,6 +2883,15 @@
       <c r="A102" t="s">
         <v>15</v>
       </c>
+      <c r="B102" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C102">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D102">
+        <v>37</v>
+      </c>
       <c r="E102">
         <v>201505</v>
       </c>
@@ -1974,6 +2906,15 @@
       <c r="A103" t="s">
         <v>15</v>
       </c>
+      <c r="B103" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C103">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D103">
+        <v>37</v>
+      </c>
       <c r="E103">
         <v>201506</v>
       </c>
@@ -1988,6 +2929,15 @@
       <c r="A104" t="s">
         <v>15</v>
       </c>
+      <c r="B104" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C104">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D104">
+        <v>37</v>
+      </c>
       <c r="E104">
         <v>201507</v>
       </c>
@@ -2002,6 +2952,15 @@
       <c r="A105" t="s">
         <v>15</v>
       </c>
+      <c r="B105" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C105">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D105">
+        <v>37</v>
+      </c>
       <c r="E105">
         <v>201508</v>
       </c>
@@ -2016,9 +2975,15 @@
       <c r="A106" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="B106" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C106">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D106">
+        <v>37</v>
+      </c>
       <c r="E106">
         <v>201509</v>
       </c>
@@ -2038,6 +3003,15 @@
       <c r="A107" t="s">
         <v>15</v>
       </c>
+      <c r="B107" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C107">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D107">
+        <v>37</v>
+      </c>
       <c r="E107">
         <v>201510</v>
       </c>
@@ -2052,6 +3026,15 @@
       <c r="A108" t="s">
         <v>15</v>
       </c>
+      <c r="B108" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C108">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D108">
+        <v>37</v>
+      </c>
       <c r="E108">
         <v>201511</v>
       </c>
@@ -2066,6 +3049,15 @@
       <c r="A109" t="s">
         <v>15</v>
       </c>
+      <c r="B109" s="3">
+        <v>18.047461999999999</v>
+      </c>
+      <c r="C109">
+        <v>-67.064300000000003</v>
+      </c>
+      <c r="D109">
+        <v>37</v>
+      </c>
       <c r="E109">
         <v>201512</v>
       </c>
@@ -2080,6 +3072,15 @@
       <c r="A110" t="s">
         <v>16</v>
       </c>
+      <c r="B110">
+        <v>18.325965</v>
+      </c>
+      <c r="C110">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D110">
+        <v>218</v>
+      </c>
       <c r="E110">
         <v>201501</v>
       </c>
@@ -2094,9 +3095,15 @@
       <c r="A111" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="B111">
+        <v>18.325965</v>
+      </c>
+      <c r="C111">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D111">
+        <v>218</v>
+      </c>
       <c r="E111">
         <v>201502</v>
       </c>
@@ -2116,9 +3123,15 @@
       <c r="A112" t="s">
         <v>16</v>
       </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="B112">
+        <v>18.325965</v>
+      </c>
+      <c r="C112">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D112">
+        <v>218</v>
+      </c>
       <c r="E112">
         <v>201503</v>
       </c>
@@ -2138,6 +3151,15 @@
       <c r="A113" t="s">
         <v>16</v>
       </c>
+      <c r="B113">
+        <v>18.325965</v>
+      </c>
+      <c r="C113">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D113">
+        <v>218</v>
+      </c>
       <c r="E113">
         <v>201504</v>
       </c>
@@ -2152,6 +3174,15 @@
       <c r="A114" t="s">
         <v>16</v>
       </c>
+      <c r="B114">
+        <v>18.325965</v>
+      </c>
+      <c r="C114">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D114">
+        <v>218</v>
+      </c>
       <c r="E114">
         <v>201505</v>
       </c>
@@ -2166,6 +3197,15 @@
       <c r="A115" t="s">
         <v>16</v>
       </c>
+      <c r="B115">
+        <v>18.325965</v>
+      </c>
+      <c r="C115">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D115">
+        <v>218</v>
+      </c>
       <c r="E115">
         <v>201506</v>
       </c>
@@ -2180,6 +3220,15 @@
       <c r="A116" t="s">
         <v>16</v>
       </c>
+      <c r="B116">
+        <v>18.325965</v>
+      </c>
+      <c r="C116">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D116">
+        <v>218</v>
+      </c>
       <c r="E116">
         <v>201507</v>
       </c>
@@ -2194,6 +3243,15 @@
       <c r="A117" t="s">
         <v>16</v>
       </c>
+      <c r="B117">
+        <v>18.325965</v>
+      </c>
+      <c r="C117">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D117">
+        <v>218</v>
+      </c>
       <c r="E117">
         <v>201508</v>
       </c>
@@ -2208,6 +3266,15 @@
       <c r="A118" t="s">
         <v>16</v>
       </c>
+      <c r="B118">
+        <v>18.325965</v>
+      </c>
+      <c r="C118">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D118">
+        <v>218</v>
+      </c>
       <c r="E118">
         <v>201509</v>
       </c>
@@ -2222,6 +3289,15 @@
       <c r="A119" t="s">
         <v>16</v>
       </c>
+      <c r="B119">
+        <v>18.325965</v>
+      </c>
+      <c r="C119">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D119">
+        <v>218</v>
+      </c>
       <c r="E119">
         <v>201510</v>
       </c>
@@ -2236,6 +3312,15 @@
       <c r="A120" t="s">
         <v>16</v>
       </c>
+      <c r="B120">
+        <v>18.325965</v>
+      </c>
+      <c r="C120">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D120">
+        <v>218</v>
+      </c>
       <c r="E120">
         <v>201511</v>
       </c>
@@ -2250,6 +3335,15 @@
       <c r="A121" t="s">
         <v>16</v>
       </c>
+      <c r="B121">
+        <v>18.325965</v>
+      </c>
+      <c r="C121">
+        <v>-66.406424000000001</v>
+      </c>
+      <c r="D121">
+        <v>218</v>
+      </c>
       <c r="E121">
         <v>201512</v>
       </c>
@@ -2264,9 +3358,15 @@
       <c r="A122" t="s">
         <v>17</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="B122" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C122" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D122" s="1">
+        <v>188</v>
+      </c>
       <c r="E122">
         <v>201501</v>
       </c>
@@ -2286,6 +3386,15 @@
       <c r="A123" t="s">
         <v>17</v>
       </c>
+      <c r="B123" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C123" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D123" s="1">
+        <v>188</v>
+      </c>
       <c r="E123">
         <v>201502</v>
       </c>
@@ -2300,6 +3409,15 @@
       <c r="A124" t="s">
         <v>17</v>
       </c>
+      <c r="B124" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C124" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D124" s="1">
+        <v>188</v>
+      </c>
       <c r="E124">
         <v>201503</v>
       </c>
@@ -2314,6 +3432,15 @@
       <c r="A125" t="s">
         <v>17</v>
       </c>
+      <c r="B125" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C125" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D125" s="1">
+        <v>188</v>
+      </c>
       <c r="E125">
         <v>201504</v>
       </c>
@@ -2328,6 +3455,15 @@
       <c r="A126" t="s">
         <v>17</v>
       </c>
+      <c r="B126" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C126" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D126" s="1">
+        <v>188</v>
+      </c>
       <c r="E126">
         <v>201505</v>
       </c>
@@ -2342,6 +3478,15 @@
       <c r="A127" t="s">
         <v>17</v>
       </c>
+      <c r="B127" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C127" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D127" s="1">
+        <v>188</v>
+      </c>
       <c r="E127">
         <v>201506</v>
       </c>
@@ -2356,6 +3501,15 @@
       <c r="A128" t="s">
         <v>17</v>
       </c>
+      <c r="B128" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C128" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D128" s="1">
+        <v>188</v>
+      </c>
       <c r="E128">
         <v>201507</v>
       </c>
@@ -2370,6 +3524,15 @@
       <c r="A129" t="s">
         <v>17</v>
       </c>
+      <c r="B129" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C129" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D129" s="1">
+        <v>188</v>
+      </c>
       <c r="E129">
         <v>201508</v>
       </c>
@@ -2384,6 +3547,15 @@
       <c r="A130" t="s">
         <v>17</v>
       </c>
+      <c r="B130" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C130" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D130" s="1">
+        <v>188</v>
+      </c>
       <c r="E130">
         <v>201509</v>
       </c>
@@ -2398,6 +3570,15 @@
       <c r="A131" t="s">
         <v>17</v>
       </c>
+      <c r="B131" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C131" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D131" s="1">
+        <v>188</v>
+      </c>
       <c r="E131">
         <v>201510</v>
       </c>
@@ -2412,6 +3593,15 @@
       <c r="A132" t="s">
         <v>17</v>
       </c>
+      <c r="B132" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C132" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D132" s="1">
+        <v>188</v>
+      </c>
       <c r="E132">
         <v>201511</v>
       </c>
@@ -2426,6 +3616,15 @@
       <c r="A133" t="s">
         <v>17</v>
       </c>
+      <c r="B133" s="1">
+        <v>18.096897999999999</v>
+      </c>
+      <c r="C133" s="1">
+        <v>-66.460178999999997</v>
+      </c>
+      <c r="D133" s="1">
+        <v>188</v>
+      </c>
       <c r="E133">
         <v>201512</v>
       </c>
@@ -2440,6 +3639,15 @@
       <c r="A134" t="s">
         <v>18</v>
       </c>
+      <c r="B134" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C134" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D134" s="1">
+        <v>43</v>
+      </c>
       <c r="E134">
         <v>201501</v>
       </c>
@@ -2454,6 +3662,15 @@
       <c r="A135" t="s">
         <v>18</v>
       </c>
+      <c r="B135" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C135" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D135" s="1">
+        <v>43</v>
+      </c>
       <c r="E135">
         <v>201502</v>
       </c>
@@ -2468,6 +3685,15 @@
       <c r="A136" t="s">
         <v>18</v>
       </c>
+      <c r="B136" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C136" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D136" s="1">
+        <v>43</v>
+      </c>
       <c r="E136">
         <v>201503</v>
       </c>
@@ -2482,6 +3708,15 @@
       <c r="A137" t="s">
         <v>18</v>
       </c>
+      <c r="B137" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C137" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D137" s="1">
+        <v>43</v>
+      </c>
       <c r="E137">
         <v>201504</v>
       </c>
@@ -2496,9 +3731,15 @@
       <c r="A138" t="s">
         <v>18</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="B138" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C138" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D138" s="1">
+        <v>43</v>
+      </c>
       <c r="E138">
         <v>201505</v>
       </c>
@@ -2518,6 +3759,15 @@
       <c r="A139" t="s">
         <v>18</v>
       </c>
+      <c r="B139" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C139" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D139" s="1">
+        <v>43</v>
+      </c>
       <c r="E139">
         <v>201506</v>
       </c>
@@ -2532,6 +3782,15 @@
       <c r="A140" t="s">
         <v>18</v>
       </c>
+      <c r="B140" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C140" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D140" s="1">
+        <v>43</v>
+      </c>
       <c r="E140">
         <v>201507</v>
       </c>
@@ -2546,6 +3805,15 @@
       <c r="A141" t="s">
         <v>18</v>
       </c>
+      <c r="B141" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C141" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D141" s="1">
+        <v>43</v>
+      </c>
       <c r="E141">
         <v>201508</v>
       </c>
@@ -2560,6 +3828,15 @@
       <c r="A142" t="s">
         <v>18</v>
       </c>
+      <c r="B142" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C142" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D142" s="1">
+        <v>43</v>
+      </c>
       <c r="E142">
         <v>201509</v>
       </c>
@@ -2574,6 +3851,15 @@
       <c r="A143" t="s">
         <v>18</v>
       </c>
+      <c r="B143" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C143" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D143" s="1">
+        <v>43</v>
+      </c>
       <c r="E143">
         <v>201510</v>
       </c>
@@ -2588,6 +3874,15 @@
       <c r="A144" t="s">
         <v>18</v>
       </c>
+      <c r="B144" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C144" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D144" s="1">
+        <v>43</v>
+      </c>
       <c r="E144">
         <v>201511</v>
       </c>
@@ -2602,6 +3897,15 @@
       <c r="A145" t="s">
         <v>18</v>
       </c>
+      <c r="B145" s="1">
+        <v>18.434204000000001</v>
+      </c>
+      <c r="C145" s="4">
+        <v>-66.473600000000005</v>
+      </c>
+      <c r="D145" s="1">
+        <v>43</v>
+      </c>
       <c r="E145">
         <v>201512</v>
       </c>
@@ -2616,6 +3920,15 @@
       <c r="A146" t="s">
         <v>19</v>
       </c>
+      <c r="B146">
+        <v>18.448231</v>
+      </c>
+      <c r="C146">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
       <c r="E146">
         <v>201501</v>
       </c>
@@ -2630,9 +3943,15 @@
       <c r="A147" t="s">
         <v>19</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="B147">
+        <v>18.448231</v>
+      </c>
+      <c r="C147">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
       <c r="E147">
         <v>201502</v>
       </c>
@@ -2659,9 +3978,15 @@
       <c r="A148" t="s">
         <v>19</v>
       </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="B148">
+        <v>18.448231</v>
+      </c>
+      <c r="C148">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
       <c r="E148">
         <v>201503</v>
       </c>
@@ -2687,6 +4012,15 @@
       <c r="A149" t="s">
         <v>19</v>
       </c>
+      <c r="B149">
+        <v>18.448231</v>
+      </c>
+      <c r="C149">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
       <c r="E149">
         <v>201504</v>
       </c>
@@ -2701,6 +4035,15 @@
       <c r="A150" t="s">
         <v>19</v>
       </c>
+      <c r="B150">
+        <v>18.448231</v>
+      </c>
+      <c r="C150">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
       <c r="E150">
         <v>201505</v>
       </c>
@@ -2715,6 +4058,15 @@
       <c r="A151" t="s">
         <v>19</v>
       </c>
+      <c r="B151">
+        <v>18.448231</v>
+      </c>
+      <c r="C151">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
       <c r="E151">
         <v>201506</v>
       </c>
@@ -2729,6 +4081,15 @@
       <c r="A152" t="s">
         <v>19</v>
       </c>
+      <c r="B152">
+        <v>18.448231</v>
+      </c>
+      <c r="C152">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
       <c r="E152">
         <v>201507</v>
       </c>
@@ -2743,6 +4104,15 @@
       <c r="A153" t="s">
         <v>19</v>
       </c>
+      <c r="B153">
+        <v>18.448231</v>
+      </c>
+      <c r="C153">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
       <c r="E153">
         <v>201508</v>
       </c>
@@ -2757,6 +4127,15 @@
       <c r="A154" t="s">
         <v>19</v>
       </c>
+      <c r="B154">
+        <v>18.448231</v>
+      </c>
+      <c r="C154">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
       <c r="E154">
         <v>201509</v>
       </c>
@@ -2771,6 +4150,15 @@
       <c r="A155" t="s">
         <v>19</v>
       </c>
+      <c r="B155">
+        <v>18.448231</v>
+      </c>
+      <c r="C155">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
       <c r="E155">
         <v>201510</v>
       </c>
@@ -2785,6 +4173,15 @@
       <c r="A156" t="s">
         <v>19</v>
       </c>
+      <c r="B156">
+        <v>18.448231</v>
+      </c>
+      <c r="C156">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
       <c r="E156">
         <v>201511</v>
       </c>
@@ -2799,6 +4196,15 @@
       <c r="A157" t="s">
         <v>19</v>
       </c>
+      <c r="B157">
+        <v>18.448231</v>
+      </c>
+      <c r="C157">
+        <v>-66.097132400000007</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
       <c r="E157">
         <v>201512</v>
       </c>
@@ -2813,6 +4219,15 @@
       <c r="A158" t="s">
         <v>20</v>
       </c>
+      <c r="B158">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C158">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
       <c r="E158">
         <v>201501</v>
       </c>
@@ -2827,6 +4242,15 @@
       <c r="A159" t="s">
         <v>20</v>
       </c>
+      <c r="B159">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C159">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
       <c r="E159">
         <v>201502</v>
       </c>
@@ -2841,9 +4265,15 @@
       <c r="A160" t="s">
         <v>20</v>
       </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="B160">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C160">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
       <c r="E160">
         <v>201503</v>
       </c>
@@ -2863,9 +4293,15 @@
       <c r="A161" t="s">
         <v>20</v>
       </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="B161">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C161">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
       <c r="E161">
         <v>201504</v>
       </c>
@@ -2885,6 +4321,15 @@
       <c r="A162" t="s">
         <v>20</v>
       </c>
+      <c r="B162">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C162">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
       <c r="E162">
         <v>201505</v>
       </c>
@@ -2899,6 +4344,15 @@
       <c r="A163" t="s">
         <v>20</v>
       </c>
+      <c r="B163">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C163">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
       <c r="E163">
         <v>201506</v>
       </c>
@@ -2913,6 +4367,15 @@
       <c r="A164" t="s">
         <v>20</v>
       </c>
+      <c r="B164">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C164">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
       <c r="E164">
         <v>201507</v>
       </c>
@@ -2927,6 +4390,15 @@
       <c r="A165" t="s">
         <v>20</v>
       </c>
+      <c r="B165">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C165">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
       <c r="E165">
         <v>201508</v>
       </c>
@@ -2941,6 +4413,15 @@
       <c r="A166" t="s">
         <v>20</v>
       </c>
+      <c r="B166">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C166">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
       <c r="E166">
         <v>201509</v>
       </c>
@@ -2955,6 +4436,15 @@
       <c r="A167" t="s">
         <v>20</v>
       </c>
+      <c r="B167">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C167">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
       <c r="E167">
         <v>201510</v>
       </c>
@@ -2969,6 +4459,15 @@
       <c r="A168" t="s">
         <v>20</v>
       </c>
+      <c r="B168">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C168">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
       <c r="E168">
         <v>201511</v>
       </c>
@@ -2983,6 +4482,15 @@
       <c r="A169" t="s">
         <v>20</v>
       </c>
+      <c r="B169">
+        <v>18.442951999999998</v>
+      </c>
+      <c r="C169">
+        <v>-66.012825000000007</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
       <c r="E169">
         <v>201512</v>
       </c>
@@ -2997,6 +4505,15 @@
       <c r="A170" t="s">
         <v>21</v>
       </c>
+      <c r="B170" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C170">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
       <c r="E170">
         <v>201501</v>
       </c>
@@ -3011,6 +4528,15 @@
       <c r="A171" t="s">
         <v>21</v>
       </c>
+      <c r="B171" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C171">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
       <c r="E171">
         <v>201502</v>
       </c>
@@ -3025,6 +4551,15 @@
       <c r="A172" t="s">
         <v>21</v>
       </c>
+      <c r="B172" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C172">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
       <c r="E172">
         <v>201503</v>
       </c>
@@ -3039,6 +4574,15 @@
       <c r="A173" t="s">
         <v>21</v>
       </c>
+      <c r="B173" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C173">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
       <c r="E173">
         <v>201504</v>
       </c>
@@ -3053,9 +4597,15 @@
       <c r="A174" t="s">
         <v>21</v>
       </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="B174" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C174">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
       <c r="E174">
         <v>201505</v>
       </c>
@@ -3075,6 +4625,15 @@
       <c r="A175" t="s">
         <v>21</v>
       </c>
+      <c r="B175" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C175">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
       <c r="E175">
         <v>201506</v>
       </c>
@@ -3089,6 +4648,15 @@
       <c r="A176" t="s">
         <v>21</v>
       </c>
+      <c r="B176" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C176">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
       <c r="E176">
         <v>201507</v>
       </c>
@@ -3103,6 +4671,15 @@
       <c r="A177" t="s">
         <v>21</v>
       </c>
+      <c r="B177" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C177">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
       <c r="E177">
         <v>201508</v>
       </c>
@@ -3117,6 +4694,15 @@
       <c r="A178" t="s">
         <v>21</v>
       </c>
+      <c r="B178" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C178">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
       <c r="E178">
         <v>201509</v>
       </c>
@@ -3131,6 +4717,15 @@
       <c r="A179" t="s">
         <v>21</v>
       </c>
+      <c r="B179" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C179">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
       <c r="E179">
         <v>201510</v>
       </c>
@@ -3145,9 +4740,15 @@
       <c r="A180" t="s">
         <v>21</v>
       </c>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="B180" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C180">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
       <c r="E180">
         <v>201511</v>
       </c>
@@ -3166,6 +4767,15 @@
     <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>21</v>
+      </c>
+      <c r="B181" s="3">
+        <v>18.445930000000001</v>
+      </c>
+      <c r="C181">
+        <v>-66.182077000000007</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
       </c>
       <c r="E181">
         <v>201512</v>
@@ -3271,30 +4881,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
+++ b/Data/noaa_temp_precip_elevation/Central America/PuertoRico_2015/PuertoRico_2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="40" windowWidth="24060" windowHeight="15560"/>
+    <workbookView xWindow="384" yWindow="36" windowWidth="24060" windowHeight="14292"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="24">
   <si>
     <t>Station</t>
   </si>
@@ -88,15 +88,21 @@
   <si>
     <t>TOA BAJA LEVITOWN</t>
   </si>
+  <si>
+    <t>Temp ( C)</t>
+  </si>
+  <si>
+    <t>Rainfall (mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +166,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,24 +469,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="D167" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,13 +504,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,14 +532,22 @@
       <c r="E2">
         <v>201501</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
+        <f>(G2-32)*5/9</f>
+        <v>26.055555555555557</v>
+      </c>
+      <c r="G2" s="1">
         <v>78.900000000000006</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
+        <f>I2*25.4</f>
+        <v>125.98399999999999</v>
+      </c>
+      <c r="I2">
         <v>4.96</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -542,14 +563,22 @@
       <c r="E3">
         <v>201502</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(G3-32)*5/9</f>
+        <v>26.166666666666664</v>
+      </c>
+      <c r="G3" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="1">I3*25.4</f>
+        <v>83.057999999999993</v>
+      </c>
+      <c r="I3">
         <v>3.27</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -565,14 +594,22 @@
       <c r="E4">
         <v>201503</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>25.944444444444443</v>
+      </c>
+      <c r="G4" s="1">
         <v>78.7</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>38.099999999999994</v>
+      </c>
+      <c r="I4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -588,14 +625,22 @@
       <c r="E5">
         <v>201504</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="G5" s="1">
         <v>81.5</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>35.051999999999992</v>
+      </c>
+      <c r="I5">
         <v>1.38</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -611,14 +656,22 @@
       <c r="E6">
         <v>201505</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>28.388888888888886</v>
+      </c>
+      <c r="G6" s="1">
         <v>83.1</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>57.911999999999992</v>
+      </c>
+      <c r="I6">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -634,14 +687,22 @@
       <c r="E7">
         <v>201506</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="G7" s="1">
         <v>83.9</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>53.593999999999994</v>
+      </c>
+      <c r="I7">
         <v>2.11</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -657,14 +718,22 @@
       <c r="E8">
         <v>201507</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>28.722222222222221</v>
+      </c>
+      <c r="G8" s="1">
         <v>83.7</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>40.893999999999998</v>
+      </c>
+      <c r="I8">
         <v>1.61</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -680,14 +749,22 @@
       <c r="E9">
         <v>201508</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>28.444444444444443</v>
+      </c>
+      <c r="G9" s="1">
         <v>83.2</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>150.62199999999999</v>
+      </c>
+      <c r="I9">
         <v>5.93</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -703,14 +780,22 @@
       <c r="E10">
         <v>201509</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>29.055555555555557</v>
+      </c>
+      <c r="G10" s="1">
         <v>84.3</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>109.21999999999998</v>
+      </c>
+      <c r="I10">
         <v>4.3</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -726,14 +811,22 @@
       <c r="E11">
         <v>201510</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>29.222222222222221</v>
+      </c>
+      <c r="G11" s="1">
         <v>84.6</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>44.957999999999998</v>
+      </c>
+      <c r="I11">
         <v>1.77</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -749,14 +842,22 @@
       <c r="E12">
         <v>201511</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="G12" s="1">
         <v>81.2</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>221.488</v>
+      </c>
+      <c r="I12">
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -772,14 +873,22 @@
       <c r="E13">
         <v>201512</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G13" s="1">
         <v>80</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>88.138000000000005</v>
+      </c>
+      <c r="I13">
         <v>3.47</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -796,13 +905,21 @@
         <v>201501</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="G14">
         <v>69.2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>147.066</v>
+      </c>
+      <c r="I14" s="1">
         <v>5.79</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -819,13 +936,21 @@
         <v>201502</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="G15">
         <v>69.5</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>133.096</v>
+      </c>
+      <c r="I15" s="1">
         <v>5.24</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -842,13 +967,19 @@
         <v>201503</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>20.722222222222221</v>
+      </c>
+      <c r="G16">
         <v>69.3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>58.419999999999995</v>
+      </c>
+      <c r="I16" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -859,8 +990,10 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -877,13 +1010,21 @@
         <v>201504</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>22.111111111111111</v>
+      </c>
+      <c r="G17">
         <v>71.8</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>42.163999999999994</v>
+      </c>
+      <c r="I17" s="1">
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -900,13 +1041,21 @@
         <v>201505</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>23.166666666666668</v>
+      </c>
+      <c r="G18">
         <v>73.7</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>113.28399999999999</v>
+      </c>
+      <c r="I18" s="1">
         <v>4.46</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -923,13 +1072,21 @@
         <v>201506</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>24.222222222222218</v>
+      </c>
+      <c r="G19">
         <v>75.599999999999994</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5719999999999992</v>
+      </c>
+      <c r="I19" s="1">
         <v>0.18</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -946,13 +1103,21 @@
         <v>201507</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>24.055555555555557</v>
+      </c>
+      <c r="G20">
         <v>75.3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>70.611999999999995</v>
+      </c>
+      <c r="I20" s="1">
         <v>2.78</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -969,13 +1134,21 @@
         <v>201508</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>24.499999999999996</v>
+      </c>
+      <c r="G21">
         <v>76.099999999999994</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>124.46000000000001</v>
+      </c>
+      <c r="I21" s="1">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -992,13 +1165,21 @@
         <v>201509</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>24.222222222222218</v>
+      </c>
+      <c r="G22">
         <v>75.599999999999994</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>174.244</v>
+      </c>
+      <c r="I22" s="1">
         <v>6.86</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1015,13 +1196,21 @@
         <v>201510</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="G23">
         <v>74.3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>353.56799999999998</v>
+      </c>
+      <c r="I23" s="1">
         <v>13.92</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1038,13 +1227,21 @@
         <v>201511</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>22.111111111111111</v>
+      </c>
+      <c r="G24">
         <v>71.8</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>173.73599999999999</v>
+      </c>
+      <c r="I24" s="1">
         <v>6.84</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1061,13 +1258,21 @@
         <v>201512</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>21.388888888888889</v>
+      </c>
+      <c r="G25">
         <v>70.5</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>86.105999999999995</v>
+      </c>
+      <c r="I25" s="1">
         <v>3.39</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1084,13 +1289,21 @@
         <v>201501</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
+        <v>21.611111111111114</v>
+      </c>
+      <c r="G26">
         <v>70.900000000000006</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>35.051999999999992</v>
+      </c>
+      <c r="I26" s="1">
         <v>1.38</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1109,11 +1322,18 @@
       <c r="F27">
         <v>-9999</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
+        <v>-9999</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>113.792</v>
+      </c>
+      <c r="I27" s="1">
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1132,19 +1352,26 @@
       <c r="F28">
         <v>-9999</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
+        <v>-9999</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>82.042000000000002</v>
+      </c>
+      <c r="I28" s="1">
         <v>3.23</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1163,11 +1390,18 @@
       <c r="F29">
         <v>-9999</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
+        <v>-9999</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>248.15799999999999</v>
+      </c>
+      <c r="I29" s="1">
         <v>9.77</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1184,13 +1418,21 @@
         <v>201505</v>
       </c>
       <c r="F30">
+        <f t="shared" si="0"/>
+        <v>24.388888888888893</v>
+      </c>
+      <c r="G30">
         <v>75.900000000000006</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>227.07599999999996</v>
+      </c>
+      <c r="I30" s="1">
         <v>8.94</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1207,13 +1449,21 @@
         <v>201506</v>
       </c>
       <c r="F31">
+        <f t="shared" si="0"/>
+        <v>25.500000000000004</v>
+      </c>
+      <c r="G31">
         <v>77.900000000000006</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>253.49199999999999</v>
+      </c>
+      <c r="I31" s="1">
         <v>9.98</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1232,11 +1482,18 @@
       <c r="F32">
         <v>-9999</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
+        <v>-9999</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>117.85599999999998</v>
+      </c>
+      <c r="I32" s="1">
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1255,11 +1512,18 @@
       <c r="F33">
         <v>-9999</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
+        <v>-9999</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>313.94399999999996</v>
+      </c>
+      <c r="I33" s="1">
         <v>12.36</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1278,11 +1542,18 @@
       <c r="F34">
         <v>-9999</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
+        <v>-9999</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>361.95</v>
+      </c>
+      <c r="I34" s="1">
         <v>14.25</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1299,13 +1570,21 @@
         <v>201510</v>
       </c>
       <c r="F35">
+        <f t="shared" si="0"/>
+        <v>25.333333333333329</v>
+      </c>
+      <c r="G35">
         <v>77.599999999999994</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>161.036</v>
+      </c>
+      <c r="I35" s="1">
         <v>6.34</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1324,11 +1603,18 @@
       <c r="F36">
         <v>-9999</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
+        <v>-9999</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>114.3</v>
+      </c>
+      <c r="I36" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1347,11 +1633,18 @@
       <c r="F37">
         <v>-9999</v>
       </c>
-      <c r="G37" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="G37">
+        <v>-9999</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>-253974.59999999998</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1367,14 +1660,22 @@
       <c r="E38">
         <v>201501</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="G38" s="1">
         <v>76</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>95.25</v>
+      </c>
+      <c r="I38" s="1">
         <v>3.75</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1390,21 +1691,29 @@
       <c r="E39">
         <v>201502</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G39" s="1">
         <v>77</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>168.40199999999999</v>
+      </c>
+      <c r="I39" s="1">
         <v>6.63</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1420,14 +1729,22 @@
       <c r="E40">
         <v>201503</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>24.722222222222221</v>
+      </c>
+      <c r="G40" s="1">
         <v>76.5</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>39.369999999999997</v>
+      </c>
+      <c r="I40" s="1">
         <v>1.55</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1443,14 +1760,22 @@
       <c r="E41">
         <v>201504</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>25.611111111111107</v>
+      </c>
+      <c r="G41" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>187.19799999999998</v>
+      </c>
+      <c r="I41" s="1">
         <v>7.37</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1466,14 +1791,22 @@
       <c r="E42">
         <v>201505</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>26.555555555555557</v>
+      </c>
+      <c r="G42" s="1">
         <v>79.8</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>184.14999999999998</v>
+      </c>
+      <c r="I42" s="1">
         <v>7.25</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1489,14 +1822,22 @@
       <c r="E43">
         <v>201506</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>27.111111111111111</v>
+      </c>
+      <c r="G43" s="1">
         <v>80.8</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>124.96799999999999</v>
+      </c>
+      <c r="I43" s="1">
         <v>4.92</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1512,14 +1853,22 @@
       <c r="E44">
         <v>201507</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>27.166666666666671</v>
+      </c>
+      <c r="G44" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>108.96599999999999</v>
+      </c>
+      <c r="I44" s="1">
         <v>4.29</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1535,14 +1884,22 @@
       <c r="E45">
         <v>201508</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="G45" s="1">
         <v>81.2</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>212.852</v>
+      </c>
+      <c r="I45" s="1">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1558,14 +1915,22 @@
       <c r="E46">
         <v>201509</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="G46" s="1">
         <v>81.8</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>274.06599999999997</v>
+      </c>
+      <c r="I46" s="1">
         <v>10.79</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1581,14 +1946,22 @@
       <c r="E47">
         <v>201510</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="G47" s="1">
         <v>81.8</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>197.10399999999998</v>
+      </c>
+      <c r="I47" s="1">
         <v>7.76</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1604,14 +1977,22 @@
       <c r="E48">
         <v>201511</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>25.833333333333332</v>
+      </c>
+      <c r="G48" s="1">
         <v>78.5</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>135.12799999999999</v>
+      </c>
+      <c r="I48" s="1">
         <v>5.32</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1627,14 +2008,22 @@
       <c r="E49">
         <v>201512</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>25.222222222222225</v>
+      </c>
+      <c r="G49" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="G49" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>-253974.59999999998</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1653,11 +2042,18 @@
       <c r="F50" s="1">
         <v>-9999</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>53.339999999999996</v>
+      </c>
+      <c r="I50">
         <v>2.1</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1676,17 +2072,24 @@
       <c r="F51" s="1">
         <v>-9999</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>41.401999999999994</v>
+      </c>
+      <c r="I51">
         <v>1.63</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1705,11 +2108,18 @@
       <c r="F52" s="1">
         <v>-9999</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>44.957999999999998</v>
+      </c>
+      <c r="I52">
         <v>1.77</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1728,11 +2138,18 @@
       <c r="F53" s="1">
         <v>-9999</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
+        <v>22.352</v>
+      </c>
+      <c r="I53">
         <v>0.88</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1751,11 +2168,18 @@
       <c r="F54" s="1">
         <v>-9999</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="1"/>
+        <v>48.767999999999994</v>
+      </c>
+      <c r="I54">
         <v>1.92</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1774,11 +2198,18 @@
       <c r="F55" s="1">
         <v>-9999</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0479999999999996</v>
+      </c>
+      <c r="I55">
         <v>0.12</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1797,11 +2228,18 @@
       <c r="F56" s="1">
         <v>-9999</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>37.591999999999999</v>
+      </c>
+      <c r="I56">
         <v>1.48</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1820,11 +2258,18 @@
       <c r="F57" s="1">
         <v>-9999</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>92.963999999999999</v>
+      </c>
+      <c r="I57">
         <v>3.66</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -1843,11 +2288,18 @@
       <c r="F58" s="1">
         <v>-9999</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
+        <v>38.099999999999994</v>
+      </c>
+      <c r="I58">
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -1866,11 +2318,18 @@
       <c r="F59" s="1">
         <v>-9999</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>44.704000000000001</v>
+      </c>
+      <c r="I59">
         <v>1.76</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1889,11 +2348,18 @@
       <c r="F60" s="1">
         <v>-9999</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="I60">
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1912,11 +2378,18 @@
       <c r="F61" s="1">
         <v>-9999</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1932,14 +2405,22 @@
       <c r="E62">
         <v>201501</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>26.722222222222218</v>
+      </c>
+      <c r="G62" s="1">
         <v>80.099999999999994</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
+        <v>43.942</v>
+      </c>
+      <c r="I62" s="1">
         <v>1.73</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -1955,14 +2436,22 @@
       <c r="E63">
         <v>201502</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>27.055555555555557</v>
+      </c>
+      <c r="G63" s="1">
         <v>80.7</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>56.896000000000001</v>
+      </c>
+      <c r="I63" s="1">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -1978,14 +2467,22 @@
       <c r="E64">
         <v>201503</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>26.722222222222218</v>
+      </c>
+      <c r="G64" s="1">
         <v>80.099999999999994</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>31.75</v>
+      </c>
+      <c r="I64" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2001,14 +2498,22 @@
       <c r="E65">
         <v>201504</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>27.611111111111111</v>
+      </c>
+      <c r="G65" s="1">
         <v>81.7</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>22.86</v>
+      </c>
+      <c r="I65" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2024,14 +2529,22 @@
       <c r="E66">
         <v>201505</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>28.777777777777779</v>
+      </c>
+      <c r="G66" s="1">
         <v>83.8</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8579999999999997</v>
+      </c>
+      <c r="I66" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2047,14 +2560,22 @@
       <c r="E67">
         <v>201506</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="2">(G67-32)*5/9</f>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="G67" s="1">
         <v>85.4</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H130" si="3">I67*25.4</f>
+        <v>23.367999999999999</v>
+      </c>
+      <c r="I67" s="1">
         <v>0.92</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2070,14 +2591,22 @@
       <c r="E68">
         <v>201507</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="G68" s="1">
         <v>84</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
+        <f t="shared" si="3"/>
+        <v>75.691999999999993</v>
+      </c>
+      <c r="I68" s="1">
         <v>2.98</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2093,14 +2622,22 @@
       <c r="E69">
         <v>201508</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="G69" s="1">
         <v>84.5</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
+        <f t="shared" si="3"/>
+        <v>106.17199999999998</v>
+      </c>
+      <c r="I69" s="1">
         <v>4.18</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2116,14 +2653,22 @@
       <c r="E70">
         <v>201509</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>29.277777777777779</v>
+      </c>
+      <c r="G70" s="1">
         <v>84.7</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
+        <f t="shared" si="3"/>
+        <v>45.973999999999997</v>
+      </c>
+      <c r="I70" s="1">
         <v>1.81</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2139,14 +2684,22 @@
       <c r="E71">
         <v>201510</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>29.277777777777779</v>
+      </c>
+      <c r="G71" s="1">
         <v>84.7</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
+        <f t="shared" si="3"/>
+        <v>122.93599999999999</v>
+      </c>
+      <c r="I71" s="1">
         <v>4.84</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2162,14 +2715,22 @@
       <c r="E72">
         <v>201511</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>27.166666666666671</v>
+      </c>
+      <c r="G72" s="1">
         <v>80.900000000000006</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
+        <f t="shared" si="3"/>
+        <v>249.93599999999998</v>
+      </c>
+      <c r="I72" s="1">
         <v>9.84</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2185,14 +2746,22 @@
       <c r="E73">
         <v>201512</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>27.833333333333329</v>
+      </c>
+      <c r="G73" s="1">
         <v>82.1</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
+        <f t="shared" si="3"/>
+        <v>78.48599999999999</v>
+      </c>
+      <c r="I73" s="1">
         <v>3.09</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2208,14 +2777,22 @@
       <c r="E74">
         <v>201501</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>25.111111111111111</v>
+      </c>
+      <c r="G74" s="1">
         <v>77.2</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
+        <f t="shared" si="3"/>
+        <v>61.467999999999996</v>
+      </c>
+      <c r="I74" s="1">
         <v>2.42</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -2231,14 +2808,20 @@
       <c r="E75">
         <v>201502</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>25.333333333333329</v>
+      </c>
+      <c r="G75" s="1">
         <v>77.599999999999994</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
+        <f t="shared" si="3"/>
+        <v>100.58399999999999</v>
+      </c>
+      <c r="I75" s="1">
         <v>3.96</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -2248,8 +2831,10 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -2265,14 +2850,22 @@
       <c r="E76">
         <v>201503</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>25.166666666666668</v>
+      </c>
+      <c r="G76" s="1">
         <v>77.3</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
+        <f t="shared" si="3"/>
+        <v>47.751999999999995</v>
+      </c>
+      <c r="I76" s="1">
         <v>1.88</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2288,14 +2881,22 @@
       <c r="E77">
         <v>201504</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>26.444444444444443</v>
+      </c>
+      <c r="G77" s="1">
         <v>79.599999999999994</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
+        <f t="shared" si="3"/>
+        <v>60.959999999999994</v>
+      </c>
+      <c r="I77" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2311,14 +2912,22 @@
       <c r="E78">
         <v>201505</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="G78" s="1">
         <v>81.8</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
+        <f t="shared" si="3"/>
+        <v>88.899999999999991</v>
+      </c>
+      <c r="I78" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -2334,19 +2943,27 @@
       <c r="E79">
         <v>201506</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>28.055555555555557</v>
+      </c>
+      <c r="G79" s="1">
         <v>82.5</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
+        <f t="shared" si="3"/>
+        <v>52.832000000000001</v>
+      </c>
+      <c r="I79" s="1">
         <v>2.08</v>
       </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2362,14 +2979,22 @@
       <c r="E80">
         <v>201507</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="G80" s="1">
         <v>82.4</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
+        <f t="shared" si="3"/>
+        <v>40.64</v>
+      </c>
+      <c r="I80" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2385,14 +3010,22 @@
       <c r="E81">
         <v>201508</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>28.166666666666668</v>
+      </c>
+      <c r="G81" s="1">
         <v>82.7</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
+        <f t="shared" si="3"/>
+        <v>101.85399999999998</v>
+      </c>
+      <c r="I81" s="1">
         <v>4.01</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -2408,14 +3041,22 @@
       <c r="E82">
         <v>201509</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>27.833333333333329</v>
+      </c>
+      <c r="G82" s="1">
         <v>82.1</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
+        <f t="shared" si="3"/>
+        <v>154.43199999999999</v>
+      </c>
+      <c r="I82" s="1">
         <v>6.08</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2431,14 +3072,22 @@
       <c r="E83">
         <v>201510</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="G83" s="1">
         <v>82</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
+        <f t="shared" si="3"/>
+        <v>148.58999999999997</v>
+      </c>
+      <c r="I83" s="1">
         <v>5.85</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -2454,14 +3103,22 @@
       <c r="E84">
         <v>201511</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>26.277777777777779</v>
+      </c>
+      <c r="G84" s="1">
         <v>79.3</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
+        <f t="shared" si="3"/>
+        <v>292.60799999999995</v>
+      </c>
+      <c r="I84" s="1">
         <v>11.52</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -2477,14 +3134,22 @@
       <c r="E85">
         <v>201512</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>26.055555555555557</v>
+      </c>
+      <c r="G85" s="1">
         <v>78.900000000000006</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
+        <f t="shared" si="3"/>
+        <v>182.626</v>
+      </c>
+      <c r="I85" s="1">
         <v>7.19</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -2500,14 +3165,22 @@
       <c r="E86">
         <v>201501</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>24.499999999999996</v>
+      </c>
+      <c r="G86" s="1">
         <v>76.099999999999994</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
+        <f t="shared" si="3"/>
+        <v>83.82</v>
+      </c>
+      <c r="I86" s="1">
         <v>3.3</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -2523,21 +3196,29 @@
       <c r="E87">
         <v>201502</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="G87" s="1">
         <v>76.8</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
+        <f t="shared" si="3"/>
+        <v>81.025999999999996</v>
+      </c>
+      <c r="I87" s="1">
         <v>3.19</v>
       </c>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2553,14 +3234,22 @@
       <c r="E88">
         <v>201503</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>24.499999999999996</v>
+      </c>
+      <c r="G88" s="1">
         <v>76.099999999999994</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
+        <f t="shared" si="3"/>
+        <v>45.211999999999996</v>
+      </c>
+      <c r="I88" s="1">
         <v>1.78</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2576,14 +3265,22 @@
       <c r="E89">
         <v>201504</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G89" s="1">
         <v>78.8</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
+        <f t="shared" si="3"/>
+        <v>15.747999999999999</v>
+      </c>
+      <c r="I89" s="1">
         <v>0.62</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2599,14 +3296,22 @@
       <c r="E90">
         <v>201505</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="G90" s="1">
         <v>81.2</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
+        <f t="shared" si="3"/>
+        <v>25.654</v>
+      </c>
+      <c r="I90" s="1">
         <v>1.01</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2622,14 +3327,22 @@
       <c r="E91">
         <v>201506</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>28.166666666666668</v>
+      </c>
+      <c r="G91" s="1">
         <v>82.7</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
+        <f t="shared" si="3"/>
+        <v>31.75</v>
+      </c>
+      <c r="I91" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2645,20 +3358,28 @@
       <c r="E92">
         <v>201507</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>28.055555555555557</v>
+      </c>
+      <c r="G92" s="1">
         <v>82.5</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
+        <f t="shared" si="3"/>
+        <v>37.591999999999999</v>
+      </c>
+      <c r="I92" s="1">
         <v>1.48</v>
       </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -2674,14 +3395,22 @@
       <c r="E93">
         <v>201508</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>28.166666666666668</v>
+      </c>
+      <c r="G93" s="1">
         <v>82.7</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
+        <f t="shared" si="3"/>
+        <v>115.31599999999999</v>
+      </c>
+      <c r="I93" s="1">
         <v>4.54</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2697,14 +3426,22 @@
       <c r="E94">
         <v>201509</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="G94" s="1">
         <v>83</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
+        <f t="shared" si="3"/>
+        <v>54.609999999999992</v>
+      </c>
+      <c r="I94" s="1">
         <v>2.15</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -2720,14 +3457,22 @@
       <c r="E95">
         <v>201510</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>27.722222222222225</v>
+      </c>
+      <c r="G95" s="1">
         <v>81.900000000000006</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
+        <f t="shared" si="3"/>
+        <v>242.06199999999998</v>
+      </c>
+      <c r="I95" s="1">
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -2743,14 +3488,22 @@
       <c r="E96">
         <v>201511</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>26.222222222222221</v>
+      </c>
+      <c r="G96" s="1">
         <v>79.2</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
+        <f t="shared" si="3"/>
+        <v>239.52199999999999</v>
+      </c>
+      <c r="I96" s="1">
         <v>9.43</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -2766,14 +3519,22 @@
       <c r="E97">
         <v>201512</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>25.277777777777779</v>
+      </c>
+      <c r="G97" s="1">
         <v>77.5</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
+        <f t="shared" si="3"/>
+        <v>176.02199999999999</v>
+      </c>
+      <c r="I97" s="1">
         <v>6.93</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -2789,14 +3550,21 @@
       <c r="E98">
         <v>201501</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>24.388888888888893</v>
+      </c>
+      <c r="G98" s="1">
         <v>75.900000000000006</v>
       </c>
-      <c r="G98" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="H98" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -2812,22 +3580,30 @@
       <c r="E99">
         <v>201502</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>24.611111111111111</v>
+      </c>
+      <c r="G99" s="1">
         <v>76.3</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
+        <f t="shared" si="3"/>
+        <v>85.597999999999999</v>
+      </c>
+      <c r="I99" s="1">
         <v>3.37</v>
       </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -2843,20 +3619,27 @@
       <c r="E100">
         <v>201503</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>23.888888888888889</v>
+      </c>
+      <c r="G100" s="1">
         <v>75</v>
       </c>
-      <c r="G100" s="1">
-        <v>-9999</v>
-      </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="H100" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I100" s="1">
+        <v>-9999</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -2872,14 +3655,21 @@
       <c r="E101">
         <v>201504</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>24.833333333333332</v>
+      </c>
+      <c r="G101" s="1">
         <v>76.7</v>
       </c>
-      <c r="G101" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="H101" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I101" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -2895,14 +3685,22 @@
       <c r="E102">
         <v>201505</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>26.166666666666664</v>
+      </c>
+      <c r="G102" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
+        <f t="shared" si="3"/>
+        <v>108.712</v>
+      </c>
+      <c r="I102" s="1">
         <v>4.28</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -2918,14 +3716,21 @@
       <c r="E103">
         <v>201506</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>27.444444444444446</v>
+      </c>
+      <c r="G103" s="1">
         <v>81.400000000000006</v>
       </c>
-      <c r="G103" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="H103" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -2941,14 +3746,21 @@
       <c r="E104">
         <v>201507</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>27.444444444444446</v>
+      </c>
+      <c r="G104" s="1">
         <v>81.400000000000006</v>
       </c>
-      <c r="G104" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="H104" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I104" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -2964,14 +3776,22 @@
       <c r="E105">
         <v>201508</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="G105" s="1">
         <v>81.2</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
+        <f t="shared" si="3"/>
+        <v>65.024000000000001</v>
+      </c>
+      <c r="I105" s="1">
         <v>2.56</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -2987,19 +3807,27 @@
       <c r="E106">
         <v>201509</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="G106" s="1">
         <v>82</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
+        <f t="shared" si="3"/>
+        <v>74.421999999999997</v>
+      </c>
+      <c r="I106" s="1">
         <v>2.93</v>
       </c>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -3015,14 +3843,21 @@
       <c r="E107">
         <v>201510</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>27.833333333333329</v>
+      </c>
+      <c r="G107" s="1">
         <v>82.1</v>
       </c>
-      <c r="G107" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="H107" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3044,8 +3879,14 @@
       <c r="G108" s="1">
         <v>-9999</v>
       </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="H108" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -3067,8 +3908,14 @@
       <c r="G109" s="1">
         <v>-9999</v>
       </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="H109" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3088,10 +3935,17 @@
         <v>-9999</v>
       </c>
       <c r="G110" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="3"/>
+        <v>57.403999999999989</v>
+      </c>
+      <c r="I110" s="1">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -3111,15 +3965,22 @@
         <v>-9999</v>
       </c>
       <c r="G111" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="3"/>
+        <v>88.138000000000005</v>
+      </c>
+      <c r="I111" s="1">
         <v>3.47</v>
       </c>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -3139,15 +4000,22 @@
         <v>-9999</v>
       </c>
       <c r="G112" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="3"/>
+        <v>85.343999999999994</v>
+      </c>
+      <c r="I112" s="1">
         <v>3.36</v>
       </c>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -3167,10 +4035,17 @@
         <v>-9999</v>
       </c>
       <c r="G113" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="3"/>
+        <v>34.544000000000004</v>
+      </c>
+      <c r="I113" s="1">
         <v>1.36</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -3190,10 +4065,17 @@
         <v>-9999</v>
       </c>
       <c r="G114" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="3"/>
+        <v>182.37199999999999</v>
+      </c>
+      <c r="I114" s="1">
         <v>7.18</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -3213,10 +4095,17 @@
         <v>-9999</v>
       </c>
       <c r="G115" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="3"/>
+        <v>92.71</v>
+      </c>
+      <c r="I115" s="1">
         <v>3.65</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -3236,10 +4125,17 @@
         <v>-9999</v>
       </c>
       <c r="G116" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="3"/>
+        <v>16.001999999999999</v>
+      </c>
+      <c r="I116" s="1">
         <v>0.63</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -3259,10 +4155,17 @@
         <v>-9999</v>
       </c>
       <c r="G117" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="3"/>
+        <v>200.66</v>
+      </c>
+      <c r="I117" s="1">
         <v>7.9</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -3282,10 +4185,17 @@
         <v>-9999</v>
       </c>
       <c r="G118" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="3"/>
+        <v>339.09</v>
+      </c>
+      <c r="I118" s="1">
         <v>13.35</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -3305,10 +4215,17 @@
         <v>-9999</v>
       </c>
       <c r="G119" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="3"/>
+        <v>135.12799999999999</v>
+      </c>
+      <c r="I119" s="1">
         <v>5.32</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -3328,10 +4245,17 @@
         <v>-9999</v>
       </c>
       <c r="G120" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="3"/>
+        <v>261.11199999999997</v>
+      </c>
+      <c r="I120" s="1">
         <v>10.28</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -3351,10 +4275,17 @@
         <v>-9999</v>
       </c>
       <c r="G121" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" si="3"/>
+        <v>39.116</v>
+      </c>
+      <c r="I121" s="1">
         <v>1.54</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -3370,19 +4301,27 @@
       <c r="E122">
         <v>201501</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122">
+        <f t="shared" si="2"/>
+        <v>21.999999999999996</v>
+      </c>
+      <c r="G122" s="1">
         <v>71.599999999999994</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
+        <f t="shared" si="3"/>
+        <v>162.81399999999999</v>
+      </c>
+      <c r="I122" s="1">
         <v>6.41</v>
       </c>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -3398,14 +4337,22 @@
       <c r="E123">
         <v>201502</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123">
+        <f t="shared" si="2"/>
+        <v>22.111111111111111</v>
+      </c>
+      <c r="G123" s="1">
         <v>71.8</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
+        <f t="shared" si="3"/>
+        <v>192.02399999999997</v>
+      </c>
+      <c r="I123" s="1">
         <v>7.56</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -3421,14 +4368,22 @@
       <c r="E124">
         <v>201503</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124">
+        <f t="shared" si="2"/>
+        <v>21.944444444444443</v>
+      </c>
+      <c r="G124" s="1">
         <v>71.5</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
+        <f t="shared" si="3"/>
+        <v>90.169999999999987</v>
+      </c>
+      <c r="I124" s="1">
         <v>3.55</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -3444,14 +4399,22 @@
       <c r="E125">
         <v>201504</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125">
+        <f t="shared" si="2"/>
+        <v>23.222222222222221</v>
+      </c>
+      <c r="G125" s="1">
         <v>73.8</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
+        <f t="shared" si="3"/>
+        <v>46.99</v>
+      </c>
+      <c r="I125" s="1">
         <v>1.85</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -3467,14 +4430,22 @@
       <c r="E126">
         <v>201505</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126">
+        <f t="shared" si="2"/>
+        <v>24.277777777777779</v>
+      </c>
+      <c r="G126" s="1">
         <v>75.7</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
+        <f t="shared" si="3"/>
+        <v>91.44</v>
+      </c>
+      <c r="I126" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -3490,14 +4461,22 @@
       <c r="E127">
         <v>201506</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127">
+        <f t="shared" si="2"/>
+        <v>25.055555555555554</v>
+      </c>
+      <c r="G127" s="1">
         <v>77.099999999999994</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
+        <f t="shared" si="3"/>
+        <v>54.863999999999997</v>
+      </c>
+      <c r="I127" s="1">
         <v>2.16</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -3513,14 +4492,22 @@
       <c r="E128">
         <v>201507</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128">
+        <f t="shared" si="2"/>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="G128" s="1">
         <v>76.8</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
+        <f t="shared" si="3"/>
+        <v>46.735999999999997</v>
+      </c>
+      <c r="I128" s="1">
         <v>1.84</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -3536,14 +4523,22 @@
       <c r="E129">
         <v>201508</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129">
+        <f t="shared" si="2"/>
+        <v>25.277777777777779</v>
+      </c>
+      <c r="G129" s="1">
         <v>77.5</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
+        <f t="shared" si="3"/>
+        <v>179.578</v>
+      </c>
+      <c r="I129" s="1">
         <v>7.07</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -3559,14 +4554,22 @@
       <c r="E130">
         <v>201509</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130">
+        <f t="shared" si="2"/>
+        <v>25.555555555555557</v>
+      </c>
+      <c r="G130" s="1">
         <v>78</v>
       </c>
-      <c r="G130" s="1">
+      <c r="H130" s="1">
+        <f t="shared" si="3"/>
+        <v>127.25399999999999</v>
+      </c>
+      <c r="I130" s="1">
         <v>5.01</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -3582,14 +4585,22 @@
       <c r="E131">
         <v>201510</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131">
+        <f t="shared" ref="F131:F181" si="4">(G131-32)*5/9</f>
+        <v>25.333333333333329</v>
+      </c>
+      <c r="G131" s="1">
         <v>77.599999999999994</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
+        <f t="shared" ref="H131:H181" si="5">I131*25.4</f>
+        <v>132.07999999999998</v>
+      </c>
+      <c r="I131" s="1">
         <v>5.2</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -3605,14 +4616,22 @@
       <c r="E132">
         <v>201511</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132">
+        <f t="shared" si="4"/>
+        <v>23.666666666666664</v>
+      </c>
+      <c r="G132" s="1">
         <v>74.599999999999994</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H132" s="1">
+        <f t="shared" si="5"/>
+        <v>234.696</v>
+      </c>
+      <c r="I132" s="1">
         <v>9.24</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -3628,14 +4647,22 @@
       <c r="E133">
         <v>201512</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133">
+        <f t="shared" si="4"/>
+        <v>22.722222222222225</v>
+      </c>
+      <c r="G133" s="1">
         <v>72.900000000000006</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H133" s="1">
+        <f t="shared" si="5"/>
+        <v>163.32199999999997</v>
+      </c>
+      <c r="I133" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -3651,14 +4678,22 @@
       <c r="E134">
         <v>201501</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134">
+        <f t="shared" si="4"/>
+        <v>23.444444444444443</v>
+      </c>
+      <c r="G134" s="1">
         <v>74.2</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
+        <f t="shared" si="5"/>
+        <v>58.92799999999999</v>
+      </c>
+      <c r="I134" s="1">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -3674,14 +4709,22 @@
       <c r="E135">
         <v>201502</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135">
+        <f t="shared" si="4"/>
+        <v>23.555555555555557</v>
+      </c>
+      <c r="G135" s="1">
         <v>74.400000000000006</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
+        <f t="shared" si="5"/>
+        <v>109.47399999999999</v>
+      </c>
+      <c r="I135" s="1">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -3697,14 +4740,22 @@
       <c r="E136">
         <v>201503</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136">
+        <f t="shared" si="4"/>
+        <v>23.055555555555557</v>
+      </c>
+      <c r="G136" s="1">
         <v>73.5</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
+        <f t="shared" si="5"/>
+        <v>82.296000000000006</v>
+      </c>
+      <c r="I136" s="1">
         <v>3.24</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -3720,14 +4771,22 @@
       <c r="E137">
         <v>201504</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137">
+        <f t="shared" si="4"/>
+        <v>24.222222222222218</v>
+      </c>
+      <c r="G137" s="1">
         <v>75.599999999999994</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
+        <f t="shared" si="5"/>
+        <v>58.673999999999999</v>
+      </c>
+      <c r="I137" s="1">
         <v>2.31</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -3743,19 +4802,27 @@
       <c r="E138">
         <v>201505</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138">
+        <f t="shared" si="4"/>
+        <v>25.777777777777782</v>
+      </c>
+      <c r="G138" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
+        <f t="shared" si="5"/>
+        <v>98.551999999999992</v>
+      </c>
+      <c r="I138" s="1">
         <v>3.88</v>
       </c>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -3771,14 +4838,22 @@
       <c r="E139">
         <v>201506</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139">
+        <f t="shared" si="4"/>
+        <v>26.333333333333336</v>
+      </c>
+      <c r="G139" s="1">
         <v>79.400000000000006</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H139" s="1">
+        <f t="shared" si="5"/>
+        <v>118.11</v>
+      </c>
+      <c r="I139" s="1">
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -3794,14 +4869,22 @@
       <c r="E140">
         <v>201507</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140">
+        <f t="shared" si="4"/>
+        <v>26.5</v>
+      </c>
+      <c r="G140" s="1">
         <v>79.7</v>
       </c>
-      <c r="G140" s="1">
+      <c r="H140" s="1">
+        <f t="shared" si="5"/>
+        <v>32.765999999999998</v>
+      </c>
+      <c r="I140" s="1">
         <v>1.29</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -3817,14 +4900,22 @@
       <c r="E141">
         <v>201508</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141">
+        <f t="shared" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G141" s="1">
         <v>80</v>
       </c>
-      <c r="G141" s="1">
+      <c r="H141" s="1">
+        <f t="shared" si="5"/>
+        <v>104.648</v>
+      </c>
+      <c r="I141" s="1">
         <v>4.12</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -3840,14 +4931,22 @@
       <c r="E142">
         <v>201509</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142">
+        <f t="shared" si="4"/>
+        <v>26.611111111111114</v>
+      </c>
+      <c r="G142" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="G142" s="1">
+      <c r="H142" s="1">
+        <f t="shared" si="5"/>
+        <v>234.18800000000002</v>
+      </c>
+      <c r="I142" s="1">
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -3863,14 +4962,22 @@
       <c r="E143">
         <v>201510</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143">
+        <f t="shared" si="4"/>
+        <v>26.555555555555557</v>
+      </c>
+      <c r="G143" s="1">
         <v>79.8</v>
       </c>
-      <c r="G143" s="1">
+      <c r="H143" s="1">
+        <f t="shared" si="5"/>
+        <v>191.51599999999999</v>
+      </c>
+      <c r="I143" s="1">
         <v>7.54</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -3886,14 +4993,22 @@
       <c r="E144">
         <v>201511</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144">
+        <f t="shared" si="4"/>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="G144" s="1">
         <v>76.8</v>
       </c>
-      <c r="G144" s="1">
+      <c r="H144" s="1">
+        <f t="shared" si="5"/>
+        <v>213.10599999999999</v>
+      </c>
+      <c r="I144" s="1">
         <v>8.39</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -3909,14 +5024,22 @@
       <c r="E145">
         <v>201512</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145">
+        <f t="shared" si="4"/>
+        <v>24.388888888888893</v>
+      </c>
+      <c r="G145" s="1">
         <v>75.900000000000006</v>
       </c>
-      <c r="G145" s="1">
+      <c r="H145" s="1">
+        <f t="shared" si="5"/>
+        <v>48.513999999999996</v>
+      </c>
+      <c r="I145" s="1">
         <v>1.91</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -3932,14 +5055,22 @@
       <c r="E146">
         <v>201501</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146">
+        <f t="shared" si="4"/>
+        <v>26.055555555555557</v>
+      </c>
+      <c r="G146" s="1">
         <v>78.900000000000006</v>
       </c>
-      <c r="G146" s="1">
+      <c r="H146" s="1">
+        <f t="shared" si="5"/>
+        <v>125.98399999999999</v>
+      </c>
+      <c r="I146" s="1">
         <v>4.96</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -3955,26 +5086,28 @@
       <c r="E147">
         <v>201502</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147">
+        <f t="shared" si="4"/>
+        <v>26.166666666666664</v>
+      </c>
+      <c r="G147" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="G147" s="1">
+      <c r="H147" s="1">
+        <f t="shared" si="5"/>
+        <v>83.057999999999993</v>
+      </c>
+      <c r="I147" s="1">
         <v>3.27</v>
       </c>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="K147" s="1">
-        <v>76.8</v>
-      </c>
-      <c r="L147" s="1">
-        <v>75.900000000000006</v>
-      </c>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
       <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -3990,25 +5123,27 @@
       <c r="E148">
         <v>201503</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148">
+        <f t="shared" si="4"/>
+        <v>25.944444444444443</v>
+      </c>
+      <c r="G148" s="1">
         <v>78.7</v>
       </c>
-      <c r="G148" s="1">
+      <c r="H148" s="1">
+        <f t="shared" si="5"/>
+        <v>38.099999999999994</v>
+      </c>
+      <c r="I148" s="1">
         <v>1.5</v>
       </c>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1">
-        <v>7.54</v>
-      </c>
-      <c r="K148" s="1">
-        <v>8.39</v>
-      </c>
-      <c r="L148" s="1">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -4024,14 +5159,22 @@
       <c r="E149">
         <v>201504</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149">
+        <f t="shared" si="4"/>
+        <v>27.5</v>
+      </c>
+      <c r="G149" s="1">
         <v>81.5</v>
       </c>
-      <c r="G149" s="1">
+      <c r="H149" s="1">
+        <f t="shared" si="5"/>
+        <v>35.051999999999992</v>
+      </c>
+      <c r="I149" s="1">
         <v>1.38</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -4047,14 +5190,22 @@
       <c r="E150">
         <v>201505</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150">
+        <f t="shared" si="4"/>
+        <v>28.388888888888886</v>
+      </c>
+      <c r="G150" s="1">
         <v>83.1</v>
       </c>
-      <c r="G150" s="1">
+      <c r="H150" s="1">
+        <f t="shared" si="5"/>
+        <v>57.911999999999992</v>
+      </c>
+      <c r="I150" s="1">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -4070,14 +5221,22 @@
       <c r="E151">
         <v>201506</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151">
+        <f t="shared" si="4"/>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="G151" s="1">
         <v>83.9</v>
       </c>
-      <c r="G151" s="1">
+      <c r="H151" s="1">
+        <f t="shared" si="5"/>
+        <v>53.593999999999994</v>
+      </c>
+      <c r="I151" s="1">
         <v>2.11</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -4093,14 +5252,22 @@
       <c r="E152">
         <v>201507</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152">
+        <f t="shared" si="4"/>
+        <v>28.722222222222221</v>
+      </c>
+      <c r="G152" s="1">
         <v>83.7</v>
       </c>
-      <c r="G152" s="1">
+      <c r="H152" s="1">
+        <f t="shared" si="5"/>
+        <v>40.893999999999998</v>
+      </c>
+      <c r="I152" s="1">
         <v>1.61</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -4116,14 +5283,22 @@
       <c r="E153">
         <v>201508</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153">
+        <f t="shared" si="4"/>
+        <v>28.444444444444443</v>
+      </c>
+      <c r="G153" s="1">
         <v>83.2</v>
       </c>
-      <c r="G153" s="1">
+      <c r="H153" s="1">
+        <f t="shared" si="5"/>
+        <v>150.62199999999999</v>
+      </c>
+      <c r="I153" s="1">
         <v>5.93</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -4139,14 +5314,22 @@
       <c r="E154">
         <v>201509</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154">
+        <f t="shared" si="4"/>
+        <v>29.055555555555557</v>
+      </c>
+      <c r="G154" s="1">
         <v>84.3</v>
       </c>
-      <c r="G154" s="1">
+      <c r="H154" s="1">
+        <f t="shared" si="5"/>
+        <v>109.21999999999998</v>
+      </c>
+      <c r="I154" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -4162,14 +5345,22 @@
       <c r="E155">
         <v>201510</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155">
+        <f t="shared" si="4"/>
+        <v>29.222222222222221</v>
+      </c>
+      <c r="G155" s="1">
         <v>84.6</v>
       </c>
-      <c r="G155" s="1">
+      <c r="H155" s="1">
+        <f t="shared" si="5"/>
+        <v>44.957999999999998</v>
+      </c>
+      <c r="I155" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -4185,14 +5376,22 @@
       <c r="E156">
         <v>201511</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156">
+        <f t="shared" si="4"/>
+        <v>27.333333333333332</v>
+      </c>
+      <c r="G156" s="1">
         <v>81.2</v>
       </c>
-      <c r="G156" s="1">
+      <c r="H156" s="1">
+        <f t="shared" si="5"/>
+        <v>221.488</v>
+      </c>
+      <c r="I156" s="1">
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -4208,14 +5407,22 @@
       <c r="E157">
         <v>201512</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157">
+        <f t="shared" si="4"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G157" s="1">
         <v>80</v>
       </c>
-      <c r="G157" s="1">
+      <c r="H157" s="1">
+        <f t="shared" si="5"/>
+        <v>88.138000000000005</v>
+      </c>
+      <c r="I157" s="1">
         <v>3.47</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -4231,14 +5438,22 @@
       <c r="E158">
         <v>201501</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>25.611111111111107</v>
+      </c>
+      <c r="G158" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="G158" s="1">
+      <c r="H158" s="1">
+        <f t="shared" si="5"/>
+        <v>126.23799999999999</v>
+      </c>
+      <c r="I158" s="1">
         <v>4.97</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -4254,14 +5469,22 @@
       <c r="E159">
         <v>201502</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159">
+        <f t="shared" si="4"/>
+        <v>25.777777777777782</v>
+      </c>
+      <c r="G159" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="G159" s="1">
+      <c r="H159" s="1">
+        <f t="shared" si="5"/>
+        <v>79.756</v>
+      </c>
+      <c r="I159" s="1">
         <v>3.14</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -4277,19 +5500,27 @@
       <c r="E160">
         <v>201503</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160">
+        <f t="shared" si="4"/>
+        <v>25.388888888888889</v>
+      </c>
+      <c r="G160" s="1">
         <v>77.7</v>
       </c>
-      <c r="G160" s="1">
+      <c r="H160" s="1">
+        <f t="shared" si="5"/>
+        <v>64.515999999999991</v>
+      </c>
+      <c r="I160" s="1">
         <v>2.54</v>
       </c>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -4305,19 +5536,27 @@
       <c r="E161">
         <v>201504</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161">
+        <f t="shared" si="4"/>
+        <v>26.888888888888893</v>
+      </c>
+      <c r="G161" s="1">
         <v>80.400000000000006</v>
       </c>
-      <c r="G161" s="1">
+      <c r="H161" s="1">
+        <f t="shared" si="5"/>
+        <v>40.893999999999998</v>
+      </c>
+      <c r="I161" s="1">
         <v>1.61</v>
       </c>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -4333,14 +5572,22 @@
       <c r="E162">
         <v>201505</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162">
+        <f t="shared" si="4"/>
+        <v>27.944444444444443</v>
+      </c>
+      <c r="G162" s="1">
         <v>82.3</v>
       </c>
-      <c r="G162" s="1">
+      <c r="H162" s="1">
+        <f t="shared" si="5"/>
+        <v>67.817999999999998</v>
+      </c>
+      <c r="I162" s="1">
         <v>2.67</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -4356,14 +5603,22 @@
       <c r="E163">
         <v>201506</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163">
+        <f t="shared" si="4"/>
+        <v>28.611111111111111</v>
+      </c>
+      <c r="G163" s="1">
         <v>83.5</v>
       </c>
-      <c r="G163" s="1">
+      <c r="H163" s="1">
+        <f t="shared" si="5"/>
+        <v>57.403999999999989</v>
+      </c>
+      <c r="I163" s="1">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -4379,14 +5634,22 @@
       <c r="E164">
         <v>201507</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164">
+        <f t="shared" si="4"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="G164" s="1">
         <v>83.6</v>
       </c>
-      <c r="G164" s="1">
+      <c r="H164" s="1">
+        <f t="shared" si="5"/>
+        <v>51.815999999999995</v>
+      </c>
+      <c r="I164" s="1">
         <v>2.04</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -4402,14 +5665,22 @@
       <c r="E165">
         <v>201508</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165">
+        <f t="shared" si="4"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="G165" s="1">
         <v>83.6</v>
       </c>
-      <c r="G165" s="1">
+      <c r="H165" s="1">
+        <f t="shared" si="5"/>
+        <v>167.89400000000001</v>
+      </c>
+      <c r="I165" s="1">
         <v>6.61</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -4425,14 +5696,22 @@
       <c r="E166">
         <v>201509</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166">
+        <f t="shared" si="4"/>
+        <v>28.555555555555557</v>
+      </c>
+      <c r="G166" s="1">
         <v>83.4</v>
       </c>
-      <c r="G166" s="1">
+      <c r="H166" s="1">
+        <f t="shared" si="5"/>
+        <v>106.934</v>
+      </c>
+      <c r="I166" s="1">
         <v>4.21</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -4448,14 +5727,22 @@
       <c r="E167">
         <v>201510</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167">
+        <f t="shared" si="4"/>
+        <v>28.722222222222221</v>
+      </c>
+      <c r="G167" s="1">
         <v>83.7</v>
       </c>
-      <c r="G167" s="1">
+      <c r="H167" s="1">
+        <f t="shared" si="5"/>
+        <v>81.025999999999996</v>
+      </c>
+      <c r="I167" s="1">
         <v>3.19</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -4471,14 +5758,22 @@
       <c r="E168">
         <v>201511</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168">
+        <f t="shared" si="4"/>
+        <v>27.055555555555557</v>
+      </c>
+      <c r="G168" s="1">
         <v>80.7</v>
       </c>
-      <c r="G168" s="1">
+      <c r="H168" s="1">
+        <f t="shared" si="5"/>
+        <v>250.44399999999996</v>
+      </c>
+      <c r="I168" s="1">
         <v>9.86</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -4494,14 +5789,22 @@
       <c r="E169">
         <v>201512</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169">
+        <f t="shared" si="4"/>
+        <v>26.333333333333336</v>
+      </c>
+      <c r="G169" s="1">
         <v>79.400000000000006</v>
       </c>
-      <c r="G169" s="1">
+      <c r="H169" s="1">
+        <f t="shared" si="5"/>
+        <v>103.378</v>
+      </c>
+      <c r="I169" s="1">
         <v>4.07</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -4517,14 +5820,21 @@
       <c r="E170">
         <v>201501</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170">
+        <f t="shared" si="4"/>
+        <v>25.611111111111107</v>
+      </c>
+      <c r="G170" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="G170" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="H170" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I170" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -4540,14 +5850,22 @@
       <c r="E171">
         <v>201502</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171">
+        <f t="shared" si="4"/>
+        <v>25.777777777777782</v>
+      </c>
+      <c r="G171" s="1">
         <v>78.400000000000006</v>
       </c>
-      <c r="G171" s="1">
+      <c r="H171" s="1">
+        <f t="shared" si="5"/>
+        <v>110.23599999999999</v>
+      </c>
+      <c r="I171" s="1">
         <v>4.34</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -4563,14 +5881,21 @@
       <c r="E172">
         <v>201503</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172">
+        <f t="shared" si="4"/>
+        <v>25.611111111111107</v>
+      </c>
+      <c r="G172" s="1">
         <v>78.099999999999994</v>
       </c>
-      <c r="G172" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="H172" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I172" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -4586,14 +5911,22 @@
       <c r="E173">
         <v>201504</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173">
+        <f t="shared" si="4"/>
+        <v>26.999999999999996</v>
+      </c>
+      <c r="G173" s="1">
         <v>80.599999999999994</v>
       </c>
-      <c r="G173" s="1">
+      <c r="H173" s="1">
+        <f t="shared" si="5"/>
+        <v>59.69</v>
+      </c>
+      <c r="I173" s="1">
         <v>2.35</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -4609,19 +5942,27 @@
       <c r="E174">
         <v>201505</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174">
+        <f t="shared" si="4"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="G174" s="1">
         <v>83</v>
       </c>
-      <c r="G174" s="1">
+      <c r="H174" s="1">
+        <f t="shared" si="5"/>
+        <v>102.10799999999999</v>
+      </c>
+      <c r="I174" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -4637,14 +5978,22 @@
       <c r="E175">
         <v>201506</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175">
+        <f t="shared" si="4"/>
+        <v>29.055555555555557</v>
+      </c>
+      <c r="G175" s="1">
         <v>84.3</v>
       </c>
-      <c r="G175" s="1">
+      <c r="H175" s="1">
+        <f t="shared" si="5"/>
+        <v>25.654</v>
+      </c>
+      <c r="I175" s="1">
         <v>1.01</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -4660,14 +6009,21 @@
       <c r="E176">
         <v>201507</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176">
+        <f t="shared" si="4"/>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="G176" s="1">
         <v>84</v>
       </c>
-      <c r="G176" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="H176" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I176" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -4683,14 +6039,22 @@
       <c r="E177">
         <v>201508</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177">
+        <f t="shared" si="4"/>
+        <v>28.777777777777779</v>
+      </c>
+      <c r="G177" s="1">
         <v>83.8</v>
       </c>
-      <c r="G177" s="1">
+      <c r="H177" s="1">
+        <f t="shared" si="5"/>
+        <v>142.74799999999999</v>
+      </c>
+      <c r="I177" s="1">
         <v>5.62</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -4706,14 +6070,21 @@
       <c r="E178">
         <v>201509</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178">
+        <f t="shared" si="4"/>
+        <v>28.944444444444443</v>
+      </c>
+      <c r="G178" s="1">
         <v>84.1</v>
       </c>
-      <c r="G178" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="H178" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I178" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -4729,14 +6100,21 @@
       <c r="E179">
         <v>201510</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179">
+        <f t="shared" si="4"/>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="G179" s="1">
         <v>83.9</v>
       </c>
-      <c r="G179" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="H179" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I179" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -4752,19 +6130,25 @@
       <c r="E180">
         <v>201511</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180">
         <v>-9999</v>
       </c>
       <c r="G180" s="1">
         <v>-9999</v>
       </c>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
+      <c r="H180" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I180" s="1">
+        <v>-9999</v>
+      </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -4780,78 +6164,97 @@
       <c r="E181">
         <v>201512</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181">
+        <f t="shared" si="4"/>
+        <v>26.277777777777779</v>
+      </c>
+      <c r="G181" s="1">
         <v>79.3</v>
       </c>
-      <c r="G181" s="1">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="F182" s="1"/>
+      <c r="H181" s="1">
+        <v>-9999</v>
+      </c>
+      <c r="I181" s="1">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:14">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="1:14">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="F185" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="1:14">
       <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="F186" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:14">
       <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="F187" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:14">
       <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:12">
-      <c r="F188" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:14">
       <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="F189" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:14">
       <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="F190" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:14">
       <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="F191" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:14">
       <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="F192" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:14">
       <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:12">
-      <c r="F193" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:14">
       <c r="G193" s="1"/>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4864,8 +6267,10 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
-    </row>
-    <row r="196" spans="1:12">
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4878,10 +6283,12 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4891,12 +6298,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4908,12 +6315,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
